--- a/chart calc.xlsx
+++ b/chart calc.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bastiaan Maijen\Desktop\imgkap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F4EAB7-817F-41FB-81FA-C74CBDA23282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA75734-A46B-4E94-8151-A31B9A7BA1A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6C215D96-3E45-4724-8C29-D814B73E4063}"/>
+    <workbookView xWindow="-264" yWindow="2472" windowWidth="20316" windowHeight="10512" xr2:uid="{6C215D96-3E45-4724-8C29-D814B73E4063}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
+    <sheet name="BL TR" sheetId="1" r:id="rId1"/>
+    <sheet name="TL BR" sheetId="3" r:id="rId2"/>
+    <sheet name="5point test" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="57">
   <si>
     <t>per min</t>
   </si>
@@ -121,9 +122,6 @@
     <t>kap file format</t>
   </si>
   <si>
-    <t>MA0110S0</t>
-  </si>
-  <si>
     <t>MA0112S1</t>
   </si>
   <si>
@@ -170,6 +168,45 @@
   </si>
   <si>
     <t>BOTTOM LEFT CORNER</t>
+  </si>
+  <si>
+    <t>NGT/5,99,99,99</t>
+  </si>
+  <si>
+    <t>NGT/,99,99,99</t>
+  </si>
+  <si>
+    <t>NGT/4,99,99,99</t>
+  </si>
+  <si>
+    <t>NGT/6,99,99,99</t>
+  </si>
+  <si>
+    <t>NGT/3,99,99,99</t>
+  </si>
+  <si>
+    <t>MA0139S2</t>
+  </si>
+  <si>
+    <t>MA2593S0</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>FILL IN</t>
+  </si>
+  <si>
+    <t>CALCULTAED DON’T TOUCH!</t>
+  </si>
+  <si>
+    <t>TEXT</t>
+  </si>
+  <si>
+    <t>COPY THIS</t>
   </si>
 </sst>
 </file>
@@ -177,8 +214,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="0.000000"/>
-    <numFmt numFmtId="169" formatCode="0.0000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -204,7 +241,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -277,8 +314,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -366,61 +409,85 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="mediumDashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="mediumDashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="mediumDashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -449,35 +516,52 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="2" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -486,50 +570,83 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="2" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -844,10 +961,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA0503A-4E69-417A-9999-6C4F14B10F49}">
-  <dimension ref="A1:V40"/>
+  <dimension ref="A1:V46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P47" sqref="P47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -861,921 +978,1052 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="65" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="66"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="71"/>
+      <c r="J1" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="86" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="69" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="70"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="69"/>
+      <c r="J2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="73">
-        <v>75000</v>
-      </c>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="74"/>
-      <c r="Q3" t="s">
-        <v>43</v>
-      </c>
+      <c r="B3" s="92"/>
+      <c r="C3" s="66">
+        <v>150000</v>
+      </c>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="67"/>
+      <c r="J3" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" s="60"/>
+      <c r="Q3" s="100" t="s">
+        <v>42</v>
+      </c>
+      <c r="R3" s="100"/>
+      <c r="S3" s="100"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B4" s="30"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="53">
+      <c r="A4" s="40"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="46">
         <f>D5*0.6</f>
-        <v>30</v>
-      </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="28">
+        <v>18</v>
+      </c>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="22">
         <f>H5*0.6</f>
         <v>0</v>
       </c>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="86" t="s">
-        <v>40</v>
-      </c>
-      <c r="M4" s="86"/>
-      <c r="N4" s="28">
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" s="63"/>
+      <c r="N4" s="22">
         <f>N5*0.6</f>
+        <v>18</v>
+      </c>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="22">
+        <f>R5*0.6</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="23"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="24"/>
+      <c r="B5" s="46">
+        <f>L5</f>
+        <v>53</v>
+      </c>
+      <c r="C5" s="46">
+        <f t="shared" ref="C5:D5" si="0">M5</f>
+        <v>50</v>
+      </c>
+      <c r="D5" s="46">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="28">
-        <f>R5*0.6</f>
-        <v>42</v>
-      </c>
-      <c r="S4" s="29"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B5" s="52">
-        <f>L5</f>
-        <v>51</v>
-      </c>
-      <c r="C5" s="53">
-        <f t="shared" ref="C5:D5" si="0">M5</f>
-        <v>58</v>
-      </c>
-      <c r="D5" s="53">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="E5" s="31"/>
-      <c r="F5" s="53">
+      <c r="E5" s="46" t="str">
+        <f>O5</f>
+        <v>N</v>
+      </c>
+      <c r="F5" s="46">
         <f>F11</f>
-        <v>2</v>
-      </c>
-      <c r="G5" s="53">
+        <v>4</v>
+      </c>
+      <c r="G5" s="46">
         <f t="shared" ref="G5:H5" si="1">G11</f>
-        <v>57</v>
-      </c>
-      <c r="H5" s="53">
+        <v>9</v>
+      </c>
+      <c r="H5" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="54">
+      <c r="I5" s="46" t="str">
+        <f>I11</f>
+        <v>E</v>
+      </c>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="47">
+        <v>53</v>
+      </c>
+      <c r="M5" s="47">
+        <v>50</v>
+      </c>
+      <c r="N5" s="47">
+        <v>30</v>
+      </c>
+      <c r="O5" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" s="47">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="47">
+        <v>40</v>
+      </c>
+      <c r="R5" s="47">
+        <v>0</v>
+      </c>
+      <c r="S5" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="M5" s="54">
-        <v>58</v>
-      </c>
-      <c r="N5" s="54">
-        <v>50</v>
-      </c>
-      <c r="O5" s="76" t="s">
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="24"/>
+      <c r="B6" s="72">
+        <f>L6</f>
+        <v>53.838354000000002</v>
+      </c>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="72">
+        <f>F12</f>
+        <v>4.1500029999999999</v>
+      </c>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="P5" s="54">
-        <v>4</v>
-      </c>
-      <c r="Q5" s="54">
-        <v>8</v>
-      </c>
-      <c r="R5" s="54">
-        <v>70</v>
-      </c>
-      <c r="S5" s="77" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B6" s="55">
-        <f>L6</f>
-        <v>51.975026</v>
-      </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="57">
-        <f>F12</f>
-        <v>2.9500190000000002</v>
-      </c>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="57">
-        <f>L5+(M5*$A$19)+((N5/100*60)*$A$21)</f>
-        <v>51.975026</v>
-      </c>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="57">
-        <f>P5+(Q5*$A$19)+((R5/100*60)*$A$21)</f>
-        <v>4.1450119999999995</v>
-      </c>
-      <c r="Q6" s="57"/>
-      <c r="R6" s="57"/>
-      <c r="S6" s="32"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="72">
+        <f>IF(O5="S",(L5+(M5*$A$19)+((N5/100*60)*$A$21))*-1,L5+(M5*$A$19)+((N5/100*60)*$A$21))</f>
+        <v>53.838354000000002</v>
+      </c>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="P6" s="72">
+        <f>IF(S5="W",(P5+(Q5*$A$19)+((R5/100*60)*$A$21))*-1,P5+(Q5*$A$19)+((R5/100*60)*$A$21))</f>
+        <v>6.6666800000000004</v>
+      </c>
+      <c r="Q6" s="72"/>
+      <c r="R6" s="72"/>
+      <c r="S6" s="55" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B7" s="78">
+      <c r="A7" s="24"/>
+      <c r="B7" s="82">
         <f>B13</f>
-        <v>440</v>
-      </c>
-      <c r="C7" s="53">
+        <v>434</v>
+      </c>
+      <c r="C7" s="46">
         <f>M7</f>
-        <v>331</v>
-      </c>
-      <c r="D7" s="44"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="54">
-        <v>7339</v>
-      </c>
-      <c r="M7" s="54">
-        <v>331</v>
-      </c>
-      <c r="N7" s="76" t="s">
-        <v>37</v>
-      </c>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="32"/>
+        <v>332</v>
+      </c>
+      <c r="D7" s="38"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="47">
+        <v>7332</v>
+      </c>
+      <c r="M7" s="47">
+        <v>332</v>
+      </c>
+      <c r="N7" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="26"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B8" s="30"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="31"/>
-      <c r="S8" s="32"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="26"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" s="83" t="s">
+      <c r="A9" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="52">
+      <c r="B9" s="46">
         <f>(B12+B6)/2</f>
-        <v>51.755853000000002</v>
-      </c>
-      <c r="C9" s="76" t="s">
+        <v>53.394186500000004</v>
+      </c>
+      <c r="C9" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="72">
+        <f>B6-B12</f>
+        <v>0.88833500000000498</v>
+      </c>
+      <c r="E9" s="72"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="57">
-        <f>B6-B12</f>
-        <v>0.43834600000000279</v>
-      </c>
-      <c r="E9" s="57"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="76" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="57">
+      <c r="H9" s="72">
         <f>P6-F6</f>
-        <v>1.1949929999999993</v>
-      </c>
-      <c r="I9" s="57"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="32"/>
+        <v>2.5166770000000005</v>
+      </c>
+      <c r="I9" s="72"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="26"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B10" s="30"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="53">
+      <c r="A10" s="24"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="46">
         <f>D11*0.6</f>
-        <v>12</v>
-      </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="53">
+        <v>0</v>
+      </c>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="46">
         <f>H11*0.6</f>
         <v>0</v>
       </c>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="53">
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="46">
         <f>N11*0.6</f>
-        <v>12</v>
-      </c>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="53">
+        <v>0</v>
+      </c>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="46">
         <f>R11*0.6</f>
-        <v>42</v>
-      </c>
-      <c r="S10" s="32"/>
+        <v>0</v>
+      </c>
+      <c r="S10" s="26"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B11" s="58">
+      <c r="A11" s="24"/>
+      <c r="B11" s="47">
+        <v>52</v>
+      </c>
+      <c r="C11" s="47">
+        <v>57</v>
+      </c>
+      <c r="D11" s="47">
+        <v>0</v>
+      </c>
+      <c r="E11" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="47">
+        <v>4</v>
+      </c>
+      <c r="G11" s="47">
+        <v>9</v>
+      </c>
+      <c r="H11" s="47">
+        <v>0</v>
+      </c>
+      <c r="I11" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="54">
+      <c r="K11" s="25"/>
+      <c r="L11" s="46">
+        <f>B11</f>
+        <v>52</v>
+      </c>
+      <c r="M11" s="46">
+        <f t="shared" ref="M11:N11" si="2">C11</f>
+        <v>57</v>
+      </c>
+      <c r="N11" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="46" t="str">
+        <f>E11</f>
+        <v>N</v>
+      </c>
+      <c r="P11" s="46">
+        <f>P5</f>
+        <v>6</v>
+      </c>
+      <c r="Q11" s="46">
+        <f t="shared" ref="Q11:R11" si="3">Q5</f>
+        <v>40</v>
+      </c>
+      <c r="R11" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S11" s="84" t="str">
+        <f>S5</f>
+        <v>E</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="24"/>
+      <c r="B12" s="72">
+        <f>IF(E11="S",(B11+(C11*$A$19)+((D11/100*60)*$A$21))*-1,B11+(C11*$A$19)+((D11/100*60)*$A$21))</f>
+        <v>52.950018999999998</v>
+      </c>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="72">
+        <f>IF(I11="W",(F11+(G11*$A$19)+((H11/100*60)*$A$21))*-1,F11+(G11*$A$19)+((H11/100*60)*$A$21))</f>
+        <v>4.1500029999999999</v>
+      </c>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="72">
+        <f>B12</f>
+        <v>52.950018999999998</v>
+      </c>
+      <c r="M12" s="73"/>
+      <c r="N12" s="73"/>
+      <c r="O12" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="P12" s="72">
+        <f>P6</f>
+        <v>6.6666800000000004</v>
+      </c>
+      <c r="Q12" s="73"/>
+      <c r="R12" s="73"/>
+      <c r="S12" s="54" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="24"/>
+      <c r="B13" s="48">
+        <v>434</v>
+      </c>
+      <c r="C13" s="48">
+        <v>4417</v>
+      </c>
+      <c r="D13" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="56">
+        <f>L7</f>
+        <v>7332</v>
+      </c>
+      <c r="M13" s="56">
+        <f>C13</f>
+        <v>4417</v>
+      </c>
+      <c r="N13" s="61"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="26"/>
+    </row>
+    <row r="14" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="31"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="32"/>
+      <c r="S14" s="33"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B15" s="100" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="100"/>
+      <c r="D15" s="100"/>
+      <c r="H15" s="97" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" s="94"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="41" t="str">
+        <f>CONCATENATE(C2,".kap")</f>
+        <v>MA2593S0.kap</v>
+      </c>
+      <c r="L15" s="26"/>
+    </row>
+    <row r="16" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H16" s="24"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="26"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B17" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="54">
-        <v>20</v>
-      </c>
-      <c r="E11" s="76" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="54">
-        <v>2</v>
-      </c>
-      <c r="G11" s="54">
-        <v>57</v>
-      </c>
-      <c r="H11" s="54">
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="65"/>
+      <c r="H17" s="27" t="str">
+        <f ca="1">CONCATENATE("!MARI-caribbean ",TEXT(NOW(),"dd/mm/yy"))</f>
+        <v>!MARI-caribbean 13/10/21</v>
+      </c>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="26"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="I11" s="76" t="s">
-        <v>39</v>
-      </c>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="53">
-        <f>B11</f>
-        <v>51</v>
-      </c>
-      <c r="M11" s="53">
-        <f t="shared" ref="M11:N11" si="2">C11</f>
-        <v>32</v>
-      </c>
-      <c r="N11" s="53">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="O11" s="31"/>
-      <c r="P11" s="53">
-        <f>P5</f>
-        <v>4</v>
-      </c>
-      <c r="Q11" s="53">
-        <f t="shared" ref="Q11:R11" si="3">Q5</f>
+      <c r="B18" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="25"/>
+      <c r="F18" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="26"/>
+    </row>
+    <row r="19" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="58">
+        <v>1.6667000000000001E-2</v>
+      </c>
+      <c r="B19" s="43">
+        <v>7680</v>
+      </c>
+      <c r="C19" s="44">
+        <v>4800</v>
+      </c>
+      <c r="D19" s="79"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="45">
+        <v>300</v>
+      </c>
+      <c r="H19" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="26"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="R11" s="53">
-        <f t="shared" si="3"/>
-        <v>70</v>
-      </c>
-      <c r="S11" s="32"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B12" s="55">
-        <f>B11+(C11*$A$19)+((D11/100*60)*$A$21)</f>
-        <v>51.536679999999997</v>
-      </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="57">
-        <f>F11+(G11*$A$19)+((H11/100*60)*$A$21)</f>
-        <v>2.9500190000000002</v>
-      </c>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="57">
-        <f>B12</f>
-        <v>51.536679999999997</v>
-      </c>
-      <c r="M12" s="56"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="57">
-        <f>P6</f>
-        <v>4.1450119999999995</v>
-      </c>
-      <c r="Q12" s="56"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="32"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B13" s="59">
-        <v>440</v>
-      </c>
-      <c r="C13" s="60">
-        <v>4416</v>
-      </c>
-      <c r="D13" s="85" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="31"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="79">
-        <f>L7</f>
-        <v>7339</v>
-      </c>
-      <c r="M13" s="79">
-        <f>C13</f>
-        <v>4416</v>
-      </c>
-      <c r="N13" s="84"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="62"/>
-      <c r="R13" s="62"/>
-      <c r="S13" s="32"/>
-    </row>
-    <row r="14" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="37"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="38"/>
-      <c r="S14" s="39"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H15" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="47" t="str">
-        <f>CONCATENATE(C2,".kap")</f>
-        <v>MA0110S0.kap</v>
-      </c>
-      <c r="L15" s="32"/>
-    </row>
-    <row r="16" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H16" s="30"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="32"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B17" s="87" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="86"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="88"/>
-      <c r="H17" s="33" t="str">
-        <f ca="1">CONCATENATE("!MARI-caribbean ",TEXT(NOW(),"dd/mm/yy"))</f>
-        <v>!MARI-caribbean 11/10/21</v>
-      </c>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="32"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="75" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="76" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="31"/>
-      <c r="F18" s="77" t="s">
-        <v>36</v>
-      </c>
-      <c r="H18" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="32"/>
-    </row>
-    <row r="19" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="81">
-        <v>1.6667000000000001E-2</v>
-      </c>
-      <c r="B19" s="49">
-        <v>7680</v>
-      </c>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50">
-        <v>4800</v>
-      </c>
-      <c r="E19" s="50"/>
-      <c r="F19" s="51">
-        <v>300</v>
-      </c>
-      <c r="H19" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="32"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="83" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="83" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="83"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="83"/>
-      <c r="H20" s="35" t="str">
-        <f>CONCATENATE("BSB/NA=",C1," ",C2,",NU=",C2,",RA=",B19,",",D19,",DU=",F19)</f>
-        <v>BSB/NA=B and NL MA0110S0,NU=MA0110S0,RA=7680,4800,DU=300</v>
-      </c>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="32"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="H20" s="29" t="str">
+        <f>CONCATENATE("BSB/NA=",C1," ",C2,",NU=",C2,",RA=",B19,",",C19,",DU=",F19)</f>
+        <v>BSB/NA=B and NL MA2593S0,NU=MA2593S0,RA=7680,4800,DU=300</v>
+      </c>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="26"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" s="80">
+      <c r="A21" s="57">
         <v>2.7799999999999998E-4</v>
       </c>
       <c r="B21" s="2">
         <f>D9*A23</f>
-        <v>48717.336094000311</v>
-      </c>
-      <c r="C21" s="83" t="s">
+        <v>98728.663565000548</v>
+      </c>
+      <c r="C21" s="60" t="s">
         <v>7</v>
       </c>
       <c r="D21" s="2">
-        <f>B21/D19</f>
-        <v>10.149445019583398</v>
-      </c>
-      <c r="E21" s="83" t="s">
+        <f>B21/C19</f>
+        <v>20.56847157604178</v>
+      </c>
+      <c r="E21" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="35" t="str">
+      <c r="H21" s="29" t="str">
         <f>CONCATENATE("KNP/SC=",C3,",GD=WGS84,PR=MERCATOR,PP=",B9)</f>
-        <v>KNP/SC=75000,GD=WGS84,PR=MERCATOR,PP=51.755853</v>
-      </c>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="32"/>
+        <v>KNP/SC=150000,GD=WGS84,PR=MERCATOR,PP=53.3941865</v>
+      </c>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="26"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A22" s="83" t="s">
+      <c r="A22" s="60" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="2">
         <f>H9*A23</f>
-        <v>132810.32702699993</v>
-      </c>
-      <c r="C22" s="83" t="s">
+        <v>279700.96510300005</v>
+      </c>
+      <c r="C22" s="60" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="2">
         <f>B22/B19</f>
-        <v>17.293011331640617</v>
-      </c>
-      <c r="E22" s="83" t="s">
+        <v>36.419396497786465</v>
+      </c>
+      <c r="E22" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="H22" s="35" t="str">
+      <c r="H22" s="29" t="str">
         <f>CONCATENATE("    PI=UNKNOWN,SP=UNKNOWN,SK=0.0,TA=0.0")</f>
         <v xml:space="preserve">    PI=UNKNOWN,SP=UNKNOWN,SK=0.0,TA=0.0</v>
       </c>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="36"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="30"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" s="82">
+      <c r="A23" s="59">
         <v>111139</v>
       </c>
-      <c r="H23" s="35" t="str">
+      <c r="H23" s="29" t="str">
         <f>CONCATENATE("    UN=METERS,SD=MEAN LOWER LOW WATER,DX=",ROUND(D22,8),",DY=",ROUND(D21,8))</f>
-        <v xml:space="preserve">    UN=METERS,SD=MEAN LOWER LOW WATER,DX=17.29301133,DY=10.14944502</v>
-      </c>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="32"/>
+        <v xml:space="preserve">    UN=METERS,SD=MEAN LOWER LOW WATER,DX=36.4193965,DY=20.56847158</v>
+      </c>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="26"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="H24" s="35" t="str">
+      <c r="H24" s="29" t="str">
         <f>CONCATENATE("KNQ/EC=RF,GD=NARC,VC=UNKNOWN,SC=MLLW,PC=MC,P1=UNKNOWN,P2=",B9)</f>
-        <v>KNQ/EC=RF,GD=NARC,VC=UNKNOWN,SC=MLLW,PC=MC,P1=UNKNOWN,P2=51.755853</v>
-      </c>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="32"/>
+        <v>KNQ/EC=RF,GD=NARC,VC=UNKNOWN,SC=MLLW,PC=MC,P1=UNKNOWN,P2=53.3941865</v>
+      </c>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="26"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="H25" s="35" t="str">
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" s="29" t="str">
         <f>CONCATENATE("    P3=NOT_APPLICABLE,P4=NOT_APPLICABLE,GC=MI,RM=POLYNOMIAL")</f>
         <v xml:space="preserve">    P3=NOT_APPLICABLE,P4=NOT_APPLICABLE,GC=MI,RM=POLYNOMIAL</v>
       </c>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="32"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="26"/>
     </row>
     <row r="26" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H26" s="35" t="s">
+      <c r="B26" t="s">
+        <v>48</v>
+      </c>
+      <c r="H26" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="32"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="26"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="H27" s="35" t="s">
+      <c r="B27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="27" t="s">
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="41" t="str">
+      <c r="N27" s="96"/>
+      <c r="O27" s="96"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="35" t="str">
         <f>CONCATENATE(C2,"map.BSB")</f>
-        <v>MA0110S0map.BSB</v>
-      </c>
-      <c r="R27" s="42"/>
-      <c r="S27" s="43"/>
+        <v>MA2593S0map.BSB</v>
+      </c>
+      <c r="R27" s="36"/>
+      <c r="S27" s="37"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="H28" s="35" t="s">
+      <c r="B28" t="s">
+        <v>44</v>
+      </c>
+      <c r="H28" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="31"/>
-      <c r="P28" s="31"/>
-      <c r="Q28" s="31"/>
-      <c r="R28" s="31"/>
-      <c r="S28" s="32"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="26"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="H29" s="35" t="s">
+      <c r="B29" t="s">
+        <v>47</v>
+      </c>
+      <c r="H29" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="33" t="str">
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="27" t="str">
         <f ca="1">CONCATENATE("CRR/MARI-caribbean ",TEXT(NOW(),"dd/mm/yy hh:mm:ss"))</f>
-        <v>CRR/MARI-caribbean 11/10/21 21:03:34</v>
-      </c>
-      <c r="N29" s="44"/>
-      <c r="O29" s="44"/>
-      <c r="P29" s="44"/>
-      <c r="Q29" s="31"/>
-      <c r="R29" s="31"/>
-      <c r="S29" s="32"/>
+        <v>CRR/MARI-caribbean 13/10/21 12:29:20</v>
+      </c>
+      <c r="N29" s="38"/>
+      <c r="O29" s="38"/>
+      <c r="P29" s="38"/>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="26"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="H30" s="35" t="str">
+      <c r="H30" s="29" t="str">
         <f>CONCATENATE("CHT/NA=",C1)</f>
         <v>CHT/NA=B and NL</v>
       </c>
-      <c r="I30" s="34"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="33" t="s">
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="N30" s="44"/>
-      <c r="O30" s="44"/>
-      <c r="P30" s="44"/>
-      <c r="Q30" s="31"/>
-      <c r="R30" s="31"/>
-      <c r="S30" s="32"/>
+      <c r="N30" s="38"/>
+      <c r="O30" s="38"/>
+      <c r="P30" s="38"/>
+      <c r="Q30" s="25"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="26"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="H31" s="35" t="str">
+      <c r="H31" s="29" t="str">
         <f>CONCATENATE("REF/1,",B7,",",C7,",",B6,",",F6)</f>
-        <v>REF/1,440,331,51.975026,2.950019</v>
-      </c>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="31"/>
-      <c r="M31" s="33" t="str">
+        <v>REF/1,434,332,53.838354,4.150003</v>
+      </c>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="27" t="str">
         <f>CONCATENATE("CHT/NA=",C2,"map,NU=",C2)</f>
-        <v>CHT/NA=MA0110S0map,NU=MA0110S0</v>
-      </c>
-      <c r="N31" s="44"/>
-      <c r="O31" s="44"/>
-      <c r="P31" s="44"/>
-      <c r="Q31" s="31"/>
-      <c r="R31" s="31"/>
-      <c r="S31" s="32"/>
+        <v>CHT/NA=MA2593S0map,NU=MA2593S0</v>
+      </c>
+      <c r="N31" s="38"/>
+      <c r="O31" s="38"/>
+      <c r="P31" s="38"/>
+      <c r="Q31" s="25"/>
+      <c r="R31" s="25"/>
+      <c r="S31" s="26"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="H32" s="35" t="str">
+      <c r="H32" s="29" t="str">
         <f>CONCATENATE("REF/2,",B13,",",C13,",",B12,",",F12)</f>
-        <v>REF/2,440,4416,51.53668,2.950019</v>
-      </c>
-      <c r="I32" s="34"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="31"/>
-      <c r="M32" s="33" t="str">
+        <v>REF/2,434,4417,52.950019,4.150003</v>
+      </c>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="27" t="str">
         <f ca="1">CONCATENATE("CED/SE=01,RE=01,ED=",TEXT(TODAY(),"dd/mm/yy"))</f>
-        <v>CED/SE=01,RE=01,ED=11/10/21</v>
-      </c>
-      <c r="N32" s="44"/>
-      <c r="O32" s="44"/>
-      <c r="P32" s="44"/>
-      <c r="Q32" s="31"/>
-      <c r="R32" s="31"/>
-      <c r="S32" s="32"/>
+        <v>CED/SE=01,RE=01,ED=13/10/21</v>
+      </c>
+      <c r="N32" s="38"/>
+      <c r="O32" s="38"/>
+      <c r="P32" s="38"/>
+      <c r="Q32" s="25"/>
+      <c r="R32" s="25"/>
+      <c r="S32" s="26"/>
     </row>
     <row r="33" spans="8:22" x14ac:dyDescent="0.3">
-      <c r="H33" s="35" t="str">
+      <c r="H33" s="29" t="str">
         <f>CONCATENATE("REF/3,",L7,",",M7,",",L6,",",P6)</f>
-        <v>REF/3,7339,331,51.975026,4.145012</v>
-      </c>
-      <c r="I33" s="34"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="33" t="str">
+        <v>REF/3,7332,332,53.838354,6.66668</v>
+      </c>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="27" t="str">
         <f>CONCATENATE("K01/NA=",C2,"map,NU=",C2,",TY=BASE,FN=",C2,"map.KAP")</f>
-        <v>K01/NA=MA0110S0map,NU=MA0110S0,TY=BASE,FN=MA0110S0map.KAP</v>
-      </c>
-      <c r="N33" s="44"/>
-      <c r="O33" s="44"/>
-      <c r="P33" s="44"/>
-      <c r="Q33" s="31"/>
-      <c r="R33" s="31"/>
-      <c r="S33" s="32"/>
+        <v>K01/NA=MA2593S0map,NU=MA2593S0,TY=BASE,FN=MA2593S0map.KAP</v>
+      </c>
+      <c r="N33" s="38"/>
+      <c r="O33" s="38"/>
+      <c r="P33" s="38"/>
+      <c r="Q33" s="25"/>
+      <c r="R33" s="25"/>
+      <c r="S33" s="26"/>
     </row>
     <row r="34" spans="8:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H34" s="35" t="str">
+      <c r="H34" s="29" t="str">
         <f>CONCATENATE("REF/4,",L13,",",M13,",",L12,",",P12)</f>
-        <v>REF/4,7339,4416,51.53668,4.145012</v>
-      </c>
-      <c r="I34" s="34"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="34"/>
-      <c r="L34" s="31"/>
-      <c r="M34" s="37"/>
-      <c r="N34" s="45"/>
-      <c r="O34" s="38"/>
-      <c r="P34" s="38"/>
-      <c r="Q34" s="38"/>
-      <c r="R34" s="38"/>
-      <c r="S34" s="39"/>
+        <v>REF/4,7332,4417,52.950019,6.66668</v>
+      </c>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="39"/>
+      <c r="O34" s="32"/>
+      <c r="P34" s="32"/>
+      <c r="Q34" s="32"/>
+      <c r="R34" s="32"/>
+      <c r="S34" s="33"/>
     </row>
     <row r="35" spans="8:22" x14ac:dyDescent="0.3">
-      <c r="H35" s="35" t="str">
+      <c r="H35" s="29" t="str">
         <f>CONCATENATE("PLY/1,",B12,",",F12)</f>
-        <v>PLY/1,51.53668,2.950019</v>
-      </c>
-      <c r="I35" s="34"/>
-      <c r="J35" s="34"/>
-      <c r="K35" s="34"/>
-      <c r="L35" s="32"/>
-      <c r="M35" s="46" t="s">
+        <v>PLY/1,52.950019,4.150003</v>
+      </c>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="95" t="s">
+        <v>30</v>
+      </c>
+      <c r="N35" s="96"/>
+      <c r="O35" s="96"/>
+      <c r="P35" s="34"/>
+      <c r="Q35" s="34"/>
+      <c r="R35" s="34"/>
+      <c r="S35" s="34"/>
+      <c r="T35" s="34"/>
+      <c r="U35" s="34"/>
+      <c r="V35" s="23"/>
+    </row>
+    <row r="36" spans="8:22" x14ac:dyDescent="0.3">
+      <c r="H36" s="29" t="str">
+        <f>CONCATENATE("PLY/2,",B6,",",F6)</f>
+        <v>PLY/2,53.838354,4.150003</v>
+      </c>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="27" t="str">
+        <f>CONCATENATE("imgkap ",C2,".png ",K15," ",C2,"map.kap -p MAP")</f>
+        <v>imgkap MA2593S0.png MA2593S0.kap MA2593S0map.kap -p MAP</v>
+      </c>
+      <c r="N36" s="25"/>
+      <c r="O36" s="25"/>
+      <c r="P36" s="25"/>
+      <c r="Q36" s="25"/>
+      <c r="R36" s="25"/>
+      <c r="S36" s="25"/>
+      <c r="T36" s="25"/>
+      <c r="U36" s="25"/>
+      <c r="V36" s="26"/>
+    </row>
+    <row r="37" spans="8:22" x14ac:dyDescent="0.3">
+      <c r="H37" s="29" t="str">
+        <f>CONCATENATE("PLY/3,",L6,",",P6)</f>
+        <v>PLY/3,53.838354,6.66668</v>
+      </c>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="25"/>
+      <c r="O37" s="25"/>
+      <c r="P37" s="25"/>
+      <c r="Q37" s="25"/>
+      <c r="R37" s="25"/>
+      <c r="S37" s="25"/>
+      <c r="T37" s="25"/>
+      <c r="U37" s="25"/>
+      <c r="V37" s="26"/>
+    </row>
+    <row r="38" spans="8:22" x14ac:dyDescent="0.3">
+      <c r="H38" s="29" t="str">
+        <f>CONCATENATE("PLY/4,",L12,",",P12)</f>
+        <v>PLY/4,52.950019,6.66668</v>
+      </c>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="28"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="N35" s="40"/>
-      <c r="O35" s="40"/>
-      <c r="P35" s="40"/>
-      <c r="Q35" s="40"/>
-      <c r="R35" s="40"/>
-      <c r="S35" s="40"/>
-      <c r="T35" s="40"/>
-      <c r="U35" s="40"/>
-      <c r="V35" s="29"/>
-    </row>
-    <row r="36" spans="8:22" x14ac:dyDescent="0.3">
-      <c r="H36" s="35" t="str">
-        <f>CONCATENATE("PLY/2,",B6,",",F6)</f>
-        <v>PLY/2,51.975026,2.950019</v>
-      </c>
-      <c r="I36" s="34"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="34"/>
-      <c r="L36" s="32"/>
-      <c r="M36" s="33" t="str">
-        <f>CONCATENATE("imgkap ",C2,".png ",K15," ",C2,"map.kap -p MAP")</f>
-        <v>imgkap MA0110S0.png MA0110S0.kap MA0110S0map.kap -p MAP</v>
-      </c>
-      <c r="N36" s="31"/>
-      <c r="O36" s="31"/>
-      <c r="P36" s="31"/>
-      <c r="Q36" s="31"/>
-      <c r="R36" s="31"/>
-      <c r="S36" s="31"/>
-      <c r="T36" s="31"/>
-      <c r="U36" s="31"/>
-      <c r="V36" s="32"/>
-    </row>
-    <row r="37" spans="8:22" x14ac:dyDescent="0.3">
-      <c r="H37" s="35" t="str">
-        <f>CONCATENATE("PLY/3,",L6,",",P6)</f>
-        <v>PLY/3,51.975026,4.145012</v>
-      </c>
-      <c r="I37" s="34"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="32"/>
-      <c r="M37" s="30"/>
-      <c r="N37" s="31"/>
-      <c r="O37" s="31"/>
-      <c r="P37" s="31"/>
-      <c r="Q37" s="31"/>
-      <c r="R37" s="31"/>
-      <c r="S37" s="31"/>
-      <c r="T37" s="31"/>
-      <c r="U37" s="31"/>
-      <c r="V37" s="32"/>
-    </row>
-    <row r="38" spans="8:22" x14ac:dyDescent="0.3">
-      <c r="H38" s="35" t="str">
-        <f>CONCATENATE("PLY/4,",L12,",",P12)</f>
-        <v>PLY/4,51.53668,4.145012</v>
-      </c>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="32"/>
-      <c r="M38" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="N38" s="31"/>
-      <c r="O38" s="31"/>
-      <c r="P38" s="31"/>
-      <c r="Q38" s="31"/>
-      <c r="R38" s="31"/>
-      <c r="S38" s="31"/>
-      <c r="T38" s="31"/>
-      <c r="U38" s="31"/>
-      <c r="V38" s="32"/>
-    </row>
-    <row r="39" spans="8:22" x14ac:dyDescent="0.3">
-      <c r="H39" s="35" t="s">
+      <c r="N38" s="94"/>
+      <c r="O38" s="25"/>
+      <c r="P38" s="25"/>
+      <c r="Q38" s="25"/>
+      <c r="R38" s="25"/>
+      <c r="S38" s="25"/>
+      <c r="T38" s="25"/>
+      <c r="U38" s="25"/>
+      <c r="V38" s="26"/>
+    </row>
+    <row r="39" spans="8:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H39" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="I39" s="34"/>
-      <c r="J39" s="34"/>
-      <c r="K39" s="34"/>
-      <c r="L39" s="32"/>
-      <c r="M39" s="48" t="str">
+      <c r="I39" s="109"/>
+      <c r="J39" s="109"/>
+      <c r="K39" s="109"/>
+      <c r="L39" s="110"/>
+      <c r="M39" s="42" t="str">
         <f>CONCATENATE("imgkap ",C2,".png ",K15," ",C2,"map.kap")</f>
-        <v>imgkap MA0110S0.png MA0110S0.kap MA0110S0map.kap</v>
-      </c>
-      <c r="N39" s="31"/>
-      <c r="O39" s="31"/>
-      <c r="P39" s="31"/>
-      <c r="Q39" s="31"/>
-      <c r="R39" s="31"/>
-      <c r="S39" s="31"/>
-      <c r="T39" s="31"/>
-      <c r="U39" s="31"/>
-      <c r="V39" s="32"/>
+        <v>imgkap MA2593S0.png MA2593S0.kap MA2593S0map.kap</v>
+      </c>
+      <c r="N39" s="25"/>
+      <c r="O39" s="25"/>
+      <c r="P39" s="25"/>
+      <c r="Q39" s="25"/>
+      <c r="R39" s="25"/>
+      <c r="S39" s="25"/>
+      <c r="T39" s="25"/>
+      <c r="U39" s="25"/>
+      <c r="V39" s="26"/>
     </row>
     <row r="40" spans="8:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H40" s="37"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="38"/>
-      <c r="K40" s="38"/>
-      <c r="L40" s="39"/>
-      <c r="M40" s="37"/>
-      <c r="N40" s="38"/>
-      <c r="O40" s="38"/>
-      <c r="P40" s="38"/>
-      <c r="Q40" s="38"/>
-      <c r="R40" s="38"/>
-      <c r="S40" s="38"/>
-      <c r="T40" s="38"/>
-      <c r="U40" s="38"/>
-      <c r="V40" s="39"/>
+      <c r="H40" s="107" t="str">
+        <f>CONCATENATE("!EXTRACT FOR BSB FILE:  (REMOVE !)")</f>
+        <v>!EXTRACT FOR BSB FILE:  (REMOVE !)</v>
+      </c>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="26"/>
+      <c r="M40" s="32"/>
+      <c r="N40" s="32"/>
+      <c r="O40" s="32"/>
+      <c r="P40" s="32"/>
+      <c r="Q40" s="32"/>
+      <c r="R40" s="32"/>
+      <c r="S40" s="32"/>
+      <c r="T40" s="32"/>
+      <c r="U40" s="32"/>
+      <c r="V40" s="33"/>
+    </row>
+    <row r="41" spans="8:22" x14ac:dyDescent="0.3">
+      <c r="H41" s="107" t="str">
+        <f>CONCATENATE("!",Q27)</f>
+        <v>!MA2593S0map.BSB</v>
+      </c>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="25"/>
+      <c r="L41" s="26"/>
+    </row>
+    <row r="42" spans="8:22" x14ac:dyDescent="0.3">
+      <c r="H42" s="107" t="str">
+        <f ca="1">CONCATENATE("!",M29)</f>
+        <v>!CRR/MARI-caribbean 13/10/21 12:29:20</v>
+      </c>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="26"/>
+    </row>
+    <row r="43" spans="8:22" x14ac:dyDescent="0.3">
+      <c r="H43" s="107" t="str">
+        <f t="shared" ref="H43:H46" si="4">CONCATENATE("!",M30)</f>
+        <v>!VER/3.0</v>
+      </c>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="26"/>
+    </row>
+    <row r="44" spans="8:22" x14ac:dyDescent="0.3">
+      <c r="H44" s="107" t="str">
+        <f t="shared" si="4"/>
+        <v>!CHT/NA=MA2593S0map,NU=MA2593S0</v>
+      </c>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="26"/>
+    </row>
+    <row r="45" spans="8:22" x14ac:dyDescent="0.3">
+      <c r="H45" s="107" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>!CED/SE=01,RE=01,ED=13/10/21</v>
+      </c>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="26"/>
+    </row>
+    <row r="46" spans="8:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H46" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>!K01/NA=MA2593S0map,NU=MA2593S0,TY=BASE,FN=MA2593S0map.KAP</v>
+      </c>
+      <c r="I46" s="32"/>
+      <c r="J46" s="32"/>
+      <c r="K46" s="32"/>
+      <c r="L46" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="F12:H12"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="P6:R6"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="P12:R12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1783,11 +2031,1059 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03AC3309-8AD8-4BC4-9E13-9A43EE9FCF2D}">
+  <dimension ref="A1:V46"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" customWidth="1"/>
+    <col min="4" max="4" width="5.88671875" customWidth="1"/>
+    <col min="5" max="9" width="5.6640625" customWidth="1"/>
+    <col min="12" max="20" width="5.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="101" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="102"/>
+      <c r="C1" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="71"/>
+      <c r="J1" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="86" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="104"/>
+      <c r="C2" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="69"/>
+      <c r="J2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="105" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="106"/>
+      <c r="C3" s="66">
+        <v>25000</v>
+      </c>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="67"/>
+      <c r="J3" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" s="60"/>
+      <c r="Q3" s="100" t="s">
+        <v>42</v>
+      </c>
+      <c r="R3" s="100"/>
+      <c r="S3" s="100"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="40"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="46">
+        <f>D5*0.6</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="22">
+        <f>H5*0.6</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" s="63"/>
+      <c r="N4" s="22">
+        <f>N5*0.6</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="22">
+        <f>R5*0.6</f>
+        <v>30</v>
+      </c>
+      <c r="S4" s="23"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="24"/>
+      <c r="B5" s="47">
+        <v>51</v>
+      </c>
+      <c r="C5" s="47">
+        <v>19</v>
+      </c>
+      <c r="D5" s="47">
+        <v>0</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="47">
+        <v>4</v>
+      </c>
+      <c r="G5" s="47">
+        <v>10</v>
+      </c>
+      <c r="H5" s="47">
+        <v>0</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="46">
+        <f>B5</f>
+        <v>51</v>
+      </c>
+      <c r="M5" s="46">
+        <f t="shared" ref="M5:N5" si="0">C5</f>
+        <v>19</v>
+      </c>
+      <c r="N5" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O5" s="2" t="str">
+        <f>E5</f>
+        <v>N</v>
+      </c>
+      <c r="P5" s="46">
+        <f>P11</f>
+        <v>4</v>
+      </c>
+      <c r="Q5" s="46">
+        <f t="shared" ref="Q5:R5" si="1">Q11</f>
+        <v>17</v>
+      </c>
+      <c r="R5" s="46">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="S5" s="84" t="str">
+        <f>S11</f>
+        <v>E</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="24"/>
+      <c r="B6" s="72">
+        <f>L6</f>
+        <v>51.316673000000002</v>
+      </c>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="72">
+        <f>IF(I5="W",(F11+(G11*$A$19)+((H11/100*60)*$A$21))*-1,F11+(G11*$A$19)+((H11/100*60)*$A$21))</f>
+        <v>4.1666699999999999</v>
+      </c>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="72">
+        <f>IF(O11="S",(L5+(M5*$A$19)+((N5/100*60)*$A$21))*-1,L5+(M5*$A$19)+((N5/100*60)*$A$21))</f>
+        <v>51.316673000000002</v>
+      </c>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="P6" s="72">
+        <f>IF(S11="W",(P5+(Q5*$A$19)+((R5/100*60)*$A$21))*-1,P5+(Q5*$A$19)+((R5/100*60)*$A$21))</f>
+        <v>4.2916789999999994</v>
+      </c>
+      <c r="Q6" s="72"/>
+      <c r="R6" s="72"/>
+      <c r="S6" s="55" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="24"/>
+      <c r="B7" s="85">
+        <v>396</v>
+      </c>
+      <c r="C7" s="47">
+        <v>298</v>
+      </c>
+      <c r="D7" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="82">
+        <f>L13</f>
+        <v>1763</v>
+      </c>
+      <c r="M7" s="46">
+        <f>C7</f>
+        <v>298</v>
+      </c>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="26"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="24"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="26"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="46">
+        <f>(B12+B6)/2</f>
+        <v>51.283338999999998</v>
+      </c>
+      <c r="C9" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="72">
+        <f>B6-B12</f>
+        <v>6.666799999999995E-2</v>
+      </c>
+      <c r="E9" s="72"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="72">
+        <f>P6-F6</f>
+        <v>0.12500899999999948</v>
+      </c>
+      <c r="I9" s="72"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="26"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="24"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="46">
+        <f>D11*0.6</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="46">
+        <f>H11*0.6</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="46">
+        <f>N11*0.6</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="46">
+        <f>R11*0.6</f>
+        <v>30</v>
+      </c>
+      <c r="S10" s="26"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="24"/>
+      <c r="B11" s="46">
+        <f>L11</f>
+        <v>51</v>
+      </c>
+      <c r="C11" s="46">
+        <f t="shared" ref="C11:D11" si="2">M11</f>
+        <v>15</v>
+      </c>
+      <c r="D11" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="2" t="str">
+        <f>O11</f>
+        <v>N</v>
+      </c>
+      <c r="F11" s="46">
+        <f>F5</f>
+        <v>4</v>
+      </c>
+      <c r="G11" s="46">
+        <f t="shared" ref="G11:H11" si="3">G5</f>
+        <v>10</v>
+      </c>
+      <c r="H11" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="46" t="str">
+        <f>I5</f>
+        <v>E</v>
+      </c>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="47">
+        <v>51</v>
+      </c>
+      <c r="M11" s="47">
+        <v>15</v>
+      </c>
+      <c r="N11" s="47">
+        <v>0</v>
+      </c>
+      <c r="O11" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" s="47">
+        <v>4</v>
+      </c>
+      <c r="Q11" s="47">
+        <v>17</v>
+      </c>
+      <c r="R11" s="47">
+        <v>50</v>
+      </c>
+      <c r="S11" s="83" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="24"/>
+      <c r="B12" s="72">
+        <f>IF(E5="S",(B11+(C11*$A$19)+((D11/100*60)*$A$21))*-1,B11+(C11*$A$19)+((D11/100*60)*$A$21))</f>
+        <v>51.250005000000002</v>
+      </c>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="72">
+        <f>F11+(G11*$A$19)+((H11/100*60)*$A$21)</f>
+        <v>4.1666699999999999</v>
+      </c>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="72">
+        <f>B12</f>
+        <v>51.250005000000002</v>
+      </c>
+      <c r="M12" s="73"/>
+      <c r="N12" s="73"/>
+      <c r="O12" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="P12" s="72">
+        <f>P6</f>
+        <v>4.2916789999999994</v>
+      </c>
+      <c r="Q12" s="73"/>
+      <c r="R12" s="73"/>
+      <c r="S12" s="55" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="24"/>
+      <c r="B13" s="56">
+        <f>B7</f>
+        <v>396</v>
+      </c>
+      <c r="C13" s="56">
+        <f>M13</f>
+        <v>1463</v>
+      </c>
+      <c r="E13" s="25"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="48">
+        <v>1763</v>
+      </c>
+      <c r="M13" s="48">
+        <v>1463</v>
+      </c>
+      <c r="N13" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="O13" s="25"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="51"/>
+      <c r="R13" s="51"/>
+      <c r="S13" s="26"/>
+    </row>
+    <row r="14" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="31"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="32"/>
+      <c r="S14" s="33"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B15" s="100" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="100"/>
+      <c r="D15" s="100"/>
+      <c r="H15" s="97" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" s="94"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="41" t="str">
+        <f>CONCATENATE(C2,".kap")</f>
+        <v>MA0139S2.kap</v>
+      </c>
+      <c r="L15" s="26"/>
+    </row>
+    <row r="16" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H16" s="24"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="26"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B17" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="65"/>
+      <c r="H17" s="27" t="str">
+        <f ca="1">CONCATENATE("!MARI-caribbean ",TEXT(NOW(),"dd/mm/yy"))</f>
+        <v>!MARI-caribbean 13/10/21</v>
+      </c>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="26"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="25"/>
+      <c r="F18" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="26"/>
+    </row>
+    <row r="19" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="58">
+        <v>1.6667000000000001E-2</v>
+      </c>
+      <c r="B19" s="43">
+        <v>2560</v>
+      </c>
+      <c r="C19" s="52">
+        <v>1920</v>
+      </c>
+      <c r="D19" s="79"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="45">
+        <v>300</v>
+      </c>
+      <c r="H19" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="26"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="H20" s="29" t="str">
+        <f>CONCATENATE("BSB/NA=",C1," ",C2,",NU=",C2,",RA=",B19,",",C19,",DU=",F19)</f>
+        <v>BSB/NA=B and NL MA0139S2,NU=MA0139S2,RA=2560,1920,DU=300</v>
+      </c>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="26"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21" s="57">
+        <v>2.7799999999999998E-4</v>
+      </c>
+      <c r="B21" s="2">
+        <f>D9*A23</f>
+        <v>7409.4148519999944</v>
+      </c>
+      <c r="C21" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="2">
+        <f>B21/C19</f>
+        <v>3.8590702354166639</v>
+      </c>
+      <c r="E21" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="29" t="str">
+        <f>CONCATENATE("KNP/SC=",C3,",GD=WGS84,PR=MERCATOR,PP=",B9)</f>
+        <v>KNP/SC=25000,GD=WGS84,PR=MERCATOR,PP=51.283339</v>
+      </c>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="26"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="2">
+        <f>H9*A23</f>
+        <v>13893.375250999943</v>
+      </c>
+      <c r="C22" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="2">
+        <f>B22/B19</f>
+        <v>5.4270997074218528</v>
+      </c>
+      <c r="E22" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="H22" s="29" t="str">
+        <f>CONCATENATE("    PI=UNKNOWN,SP=UNKNOWN,SK=0.0,TA=0.0")</f>
+        <v xml:space="preserve">    PI=UNKNOWN,SP=UNKNOWN,SK=0.0,TA=0.0</v>
+      </c>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="30"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23" s="59">
+        <v>111139</v>
+      </c>
+      <c r="H23" s="29" t="str">
+        <f>CONCATENATE("    UN=METERS,SD=MEAN LOWER LOW WATER,DX=",ROUND(D22,8),",DY=",ROUND(D21,8))</f>
+        <v xml:space="preserve">    UN=METERS,SD=MEAN LOWER LOW WATER,DX=5.42709971,DY=3.85907024</v>
+      </c>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="26"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="H24" s="29" t="str">
+        <f>CONCATENATE("KNQ/EC=RF,GD=NARC,VC=UNKNOWN,SC=MLLW,PC=MC,P1=UNKNOWN,P2=",B9)</f>
+        <v>KNQ/EC=RF,GD=NARC,VC=UNKNOWN,SC=MLLW,PC=MC,P1=UNKNOWN,P2=51.283339</v>
+      </c>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="26"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" s="29" t="str">
+        <f>CONCATENATE("    P3=NOT_APPLICABLE,P4=NOT_APPLICABLE,GC=MI,RM=POLYNOMIAL")</f>
+        <v xml:space="preserve">    P3=NOT_APPLICABLE,P4=NOT_APPLICABLE,GC=MI,RM=POLYNOMIAL</v>
+      </c>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="26"/>
+    </row>
+    <row r="26" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>48</v>
+      </c>
+      <c r="H26" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="26"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="95" t="s">
+        <v>26</v>
+      </c>
+      <c r="N27" s="98"/>
+      <c r="O27" s="98"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="35" t="str">
+        <f>CONCATENATE(C2,"map.BSB")</f>
+        <v>MA0139S2map.BSB</v>
+      </c>
+      <c r="R27" s="36"/>
+      <c r="S27" s="37"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>44</v>
+      </c>
+      <c r="H28" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="26"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>47</v>
+      </c>
+      <c r="H29" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="27" t="str">
+        <f ca="1">CONCATENATE("CRR/MARI-caribbean ",TEXT(NOW(),"dd/mm/yy hh:mm:ss"))</f>
+        <v>CRR/MARI-caribbean 13/10/21 12:29:20</v>
+      </c>
+      <c r="N29" s="38"/>
+      <c r="O29" s="38"/>
+      <c r="P29" s="38"/>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="26"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="H30" s="29" t="str">
+        <f>CONCATENATE("CHT/NA=",C1)</f>
+        <v>CHT/NA=B and NL</v>
+      </c>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="N30" s="38"/>
+      <c r="O30" s="38"/>
+      <c r="P30" s="38"/>
+      <c r="Q30" s="25"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="26"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="H31" s="29" t="str">
+        <f>CONCATENATE("REF/1,",B7,",",C7,",",B6,",",F6)</f>
+        <v>REF/1,396,298,51.316673,4.16667</v>
+      </c>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="27" t="str">
+        <f>CONCATENATE("CHT/NA=",C2,"map,NU=",C2)</f>
+        <v>CHT/NA=MA0139S2map,NU=MA0139S2</v>
+      </c>
+      <c r="N31" s="38"/>
+      <c r="O31" s="38"/>
+      <c r="P31" s="38"/>
+      <c r="Q31" s="25"/>
+      <c r="R31" s="25"/>
+      <c r="S31" s="26"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="H32" s="29" t="str">
+        <f>CONCATENATE("REF/2,",B13,",",C13,",",B12,",",F12)</f>
+        <v>REF/2,396,1463,51.250005,4.16667</v>
+      </c>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="27" t="str">
+        <f ca="1">CONCATENATE("CED/SE=01,RE=01,ED=",TEXT(TODAY(),"dd/mm/yy"))</f>
+        <v>CED/SE=01,RE=01,ED=13/10/21</v>
+      </c>
+      <c r="N32" s="38"/>
+      <c r="O32" s="38"/>
+      <c r="P32" s="38"/>
+      <c r="Q32" s="25"/>
+      <c r="R32" s="25"/>
+      <c r="S32" s="26"/>
+    </row>
+    <row r="33" spans="8:22" x14ac:dyDescent="0.3">
+      <c r="H33" s="29" t="str">
+        <f>CONCATENATE("REF/3,",L7,",",M7,",",L6,",",P6)</f>
+        <v>REF/3,1763,298,51.316673,4.291679</v>
+      </c>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="27" t="str">
+        <f>CONCATENATE("K01/NA=",C2,"map,NU=",C2,",TY=BASE,FN=",C2,"map.KAP")</f>
+        <v>K01/NA=MA0139S2map,NU=MA0139S2,TY=BASE,FN=MA0139S2map.KAP</v>
+      </c>
+      <c r="N33" s="38"/>
+      <c r="O33" s="38"/>
+      <c r="P33" s="38"/>
+      <c r="Q33" s="25"/>
+      <c r="R33" s="25"/>
+      <c r="S33" s="26"/>
+    </row>
+    <row r="34" spans="8:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H34" s="29" t="str">
+        <f>CONCATENATE("REF/4,",L13,",",M13,",",L12,",",P12)</f>
+        <v>REF/4,1763,1463,51.250005,4.291679</v>
+      </c>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="39"/>
+      <c r="O34" s="32"/>
+      <c r="P34" s="32"/>
+      <c r="Q34" s="32"/>
+      <c r="R34" s="32"/>
+      <c r="S34" s="33"/>
+    </row>
+    <row r="35" spans="8:22" x14ac:dyDescent="0.3">
+      <c r="H35" s="29" t="str">
+        <f>CONCATENATE("PLY/1,",B12,",",F12)</f>
+        <v>PLY/1,51.250005,4.16667</v>
+      </c>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="95" t="s">
+        <v>30</v>
+      </c>
+      <c r="N35" s="98"/>
+      <c r="O35" s="98"/>
+      <c r="P35" s="34"/>
+      <c r="Q35" s="34"/>
+      <c r="R35" s="34"/>
+      <c r="S35" s="34"/>
+      <c r="T35" s="34"/>
+      <c r="U35" s="34"/>
+      <c r="V35" s="23"/>
+    </row>
+    <row r="36" spans="8:22" x14ac:dyDescent="0.3">
+      <c r="H36" s="29" t="str">
+        <f>CONCATENATE("PLY/2,",B6,",",F6)</f>
+        <v>PLY/2,51.316673,4.16667</v>
+      </c>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="27" t="str">
+        <f>CONCATENATE("imgkap ",C2,".png ",K15," ",C2,"map.kap -p MAP")</f>
+        <v>imgkap MA0139S2.png MA0139S2.kap MA0139S2map.kap -p MAP</v>
+      </c>
+      <c r="N36" s="25"/>
+      <c r="O36" s="25"/>
+      <c r="P36" s="25"/>
+      <c r="Q36" s="25"/>
+      <c r="R36" s="25"/>
+      <c r="S36" s="25"/>
+      <c r="T36" s="25"/>
+      <c r="U36" s="25"/>
+      <c r="V36" s="26"/>
+    </row>
+    <row r="37" spans="8:22" x14ac:dyDescent="0.3">
+      <c r="H37" s="29" t="str">
+        <f>CONCATENATE("PLY/3,",L6,",",P6)</f>
+        <v>PLY/3,51.316673,4.291679</v>
+      </c>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="25"/>
+      <c r="O37" s="25"/>
+      <c r="P37" s="25"/>
+      <c r="Q37" s="25"/>
+      <c r="R37" s="25"/>
+      <c r="S37" s="25"/>
+      <c r="T37" s="25"/>
+      <c r="U37" s="25"/>
+      <c r="V37" s="26"/>
+    </row>
+    <row r="38" spans="8:22" x14ac:dyDescent="0.3">
+      <c r="H38" s="29" t="str">
+        <f>CONCATENATE("PLY/4,",L12,",",P12)</f>
+        <v>PLY/4,51.250005,4.291679</v>
+      </c>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="28"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="97" t="s">
+        <v>31</v>
+      </c>
+      <c r="N38" s="99"/>
+      <c r="O38" s="25"/>
+      <c r="P38" s="25"/>
+      <c r="Q38" s="25"/>
+      <c r="R38" s="25"/>
+      <c r="S38" s="25"/>
+      <c r="T38" s="25"/>
+      <c r="U38" s="25"/>
+      <c r="V38" s="26"/>
+    </row>
+    <row r="39" spans="8:22" x14ac:dyDescent="0.3">
+      <c r="H39" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="42" t="str">
+        <f>CONCATENATE("imgkap ",C2,".png ",K15," ",C2,"map.kap")</f>
+        <v>imgkap MA0139S2.png MA0139S2.kap MA0139S2map.kap</v>
+      </c>
+      <c r="N39" s="25"/>
+      <c r="O39" s="25"/>
+      <c r="P39" s="25"/>
+      <c r="Q39" s="25"/>
+      <c r="R39" s="25"/>
+      <c r="S39" s="25"/>
+      <c r="T39" s="25"/>
+      <c r="U39" s="25"/>
+      <c r="V39" s="26"/>
+    </row>
+    <row r="40" spans="8:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H40" s="80" t="str">
+        <f>CONCATENATE("!EXTRACT FOR BSB FILE:  (REMOVE !)")</f>
+        <v>!EXTRACT FOR BSB FILE:  (REMOVE !)</v>
+      </c>
+      <c r="I40" s="32"/>
+      <c r="J40" s="32"/>
+      <c r="K40" s="32"/>
+      <c r="L40" s="33"/>
+      <c r="M40" s="31"/>
+      <c r="N40" s="32"/>
+      <c r="O40" s="32"/>
+      <c r="P40" s="32"/>
+      <c r="Q40" s="32"/>
+      <c r="R40" s="32"/>
+      <c r="S40" s="32"/>
+      <c r="T40" s="32"/>
+      <c r="U40" s="32"/>
+      <c r="V40" s="33"/>
+    </row>
+    <row r="41" spans="8:22" x14ac:dyDescent="0.3">
+      <c r="H41" s="81" t="str">
+        <f>CONCATENATE("!",Q27)</f>
+        <v>!MA0139S2map.BSB</v>
+      </c>
+    </row>
+    <row r="42" spans="8:22" x14ac:dyDescent="0.3">
+      <c r="H42" s="81" t="str">
+        <f ca="1">CONCATENATE("!",M29)</f>
+        <v>!CRR/MARI-caribbean 13/10/21 12:29:20</v>
+      </c>
+    </row>
+    <row r="43" spans="8:22" x14ac:dyDescent="0.3">
+      <c r="H43" s="81" t="str">
+        <f t="shared" ref="H43:H46" si="4">CONCATENATE("!",M30)</f>
+        <v>!VER/3.0</v>
+      </c>
+    </row>
+    <row r="44" spans="8:22" x14ac:dyDescent="0.3">
+      <c r="H44" s="81" t="str">
+        <f t="shared" si="4"/>
+        <v>!CHT/NA=MA0139S2map,NU=MA0139S2</v>
+      </c>
+    </row>
+    <row r="45" spans="8:22" x14ac:dyDescent="0.3">
+      <c r="H45" s="81" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>!CED/SE=01,RE=01,ED=13/10/21</v>
+      </c>
+    </row>
+    <row r="46" spans="8:22" x14ac:dyDescent="0.3">
+      <c r="H46" s="81" t="str">
+        <f t="shared" si="4"/>
+        <v>!K01/NA=MA0139S2map,NU=MA0139S2,TY=BASE,FN=MA0139S2map.KAP</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4769B198-135A-410D-8B1F-3F843D2F8A90}">
   <dimension ref="A1:Y40"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1805,23 +3101,23 @@
       <c r="A1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="23"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="13">
         <v>30000</v>
       </c>
     </row>
@@ -1834,7 +3130,7 @@
         <f>H5*0.6</f>
         <v>24</v>
       </c>
-      <c r="J4" s="26">
+      <c r="J4" s="21">
         <v>3</v>
       </c>
       <c r="L4">
@@ -1845,7 +3141,7 @@
         <f>P5*0.6</f>
         <v>54</v>
       </c>
-      <c r="S4" s="26">
+      <c r="S4" s="21">
         <v>4</v>
       </c>
       <c r="U4">
@@ -1858,142 +3154,142 @@
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A5" s="26">
+      <c r="A5" s="21">
         <v>2</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="16">
         <v>53</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="16">
         <v>20</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="16">
         <v>20</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="16">
         <f>F11</f>
         <v>5</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="16">
         <f t="shared" ref="G5:H5" si="0">G11</f>
         <v>8</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="16">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="13">
         <f>S5</f>
         <v>53</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5" s="13">
         <f t="shared" ref="K5:L5" si="1">T5</f>
         <v>22</v>
       </c>
-      <c r="L5" s="16">
+      <c r="L5" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N5" s="16">
+      <c r="N5" s="13">
         <v>5</v>
       </c>
-      <c r="O5" s="16">
+      <c r="O5" s="13">
         <v>12</v>
       </c>
-      <c r="P5" s="16">
+      <c r="P5" s="13">
         <v>90</v>
       </c>
-      <c r="S5" s="16">
+      <c r="S5" s="13">
         <v>53</v>
       </c>
-      <c r="T5" s="16">
+      <c r="T5" s="13">
         <v>22</v>
       </c>
-      <c r="U5" s="16">
+      <c r="U5" s="13">
         <v>0</v>
       </c>
-      <c r="W5" s="16">
+      <c r="W5" s="13">
         <v>5</v>
       </c>
-      <c r="X5" s="16">
+      <c r="X5" s="13">
         <v>16</v>
       </c>
-      <c r="Y5" s="16">
+      <c r="Y5" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B6" s="18">
+      <c r="B6" s="75">
         <f>S6</f>
         <v>53.366674000000003</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="F6" s="18">
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="F6" s="75">
         <f>F12</f>
         <v>5.1400079999999999</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="J6" s="18">
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="J6" s="75">
         <f>J5+(K5*$A$16)+((L5/100*60)*$A$18)</f>
         <v>53.366674000000003</v>
       </c>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
       <c r="M6" t="s">
         <v>4</v>
       </c>
-      <c r="N6" s="18">
+      <c r="N6" s="75">
         <f>N5+(O5*$A$16)+((P5/100*60)*$A$18)</f>
         <v>5.2150159999999994</v>
       </c>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="S6" s="18">
+      <c r="O6" s="75"/>
+      <c r="P6" s="75"/>
+      <c r="S6" s="75">
         <f>S5+(T5*$A$16)+((U5/100*60)*$A$18)</f>
         <v>53.366674000000003</v>
       </c>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
-      <c r="W6" s="18">
+      <c r="T6" s="75"/>
+      <c r="U6" s="75"/>
+      <c r="W6" s="75">
         <f>W5+(X5*$A$16)+((Y5/100*60)*$A$18)</f>
         <v>5.2666719999999998</v>
       </c>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="18"/>
+      <c r="X6" s="75"/>
+      <c r="Y6" s="75"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B7" s="22">
+      <c r="B7" s="17">
         <f>B13</f>
         <v>472</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="7">
         <v>1111</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="8">
         <v>1498</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="8">
         <f>U7</f>
         <v>424</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
-      <c r="S7" s="9">
+      <c r="S7" s="7">
         <v>2207</v>
       </c>
-      <c r="T7" s="9" t="s">
+      <c r="T7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="U7" s="9">
+      <c r="U7" s="7">
         <v>424</v>
       </c>
     </row>
@@ -2008,25 +3304,25 @@
       <c r="C9" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="76">
         <f>S6-B12</f>
         <v>5.8328000000003044E-2</v>
       </c>
-      <c r="E9" s="14"/>
+      <c r="E9" s="76"/>
       <c r="G9" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="76">
         <f>W6-F12</f>
         <v>0.12666399999999989</v>
       </c>
-      <c r="I9" s="14"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="D10">
@@ -2037,7 +3333,7 @@
         <f>H11*0.6</f>
         <v>24</v>
       </c>
-      <c r="S10" s="26">
+      <c r="S10" s="21">
         <v>5</v>
       </c>
       <c r="U10">
@@ -2050,25 +3346,25 @@
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A11" s="26">
+      <c r="A11" s="21">
         <v>1</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="13">
         <v>53</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="13">
         <v>18</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="13">
         <v>50</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="13">
         <v>5</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="13">
         <v>8</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="13">
         <v>40</v>
       </c>
       <c r="S11" s="2">
@@ -2097,55 +3393,55 @@
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B12" s="18">
+      <c r="B12" s="75">
         <f>B11+(C11*$A$16)+((D11/100*60)*$A$18)</f>
         <v>53.308346</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="75"/>
       <c r="E12" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="75">
         <f>F11+(G11*$A$16)+((H11/100*60)*$A$18)</f>
         <v>5.1400079999999999</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="S12" s="18">
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
+      <c r="S12" s="75">
         <f>B12</f>
         <v>53.308346</v>
       </c>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="W12" s="18">
+      <c r="T12" s="77"/>
+      <c r="U12" s="77"/>
+      <c r="W12" s="75">
         <f>W6</f>
         <v>5.2666719999999998</v>
       </c>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="6"/>
+      <c r="X12" s="77"/>
+      <c r="Y12" s="77"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B13" s="10">
+      <c r="B13" s="8">
         <v>472</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="8">
         <v>1761</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="S13" s="10">
+      <c r="S13" s="8">
         <f>S7</f>
         <v>2207</v>
       </c>
-      <c r="T13" s="12" t="s">
+      <c r="T13" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="U13" s="10">
+      <c r="U13" s="8">
         <f>D13</f>
         <v>1761</v>
       </c>
@@ -2163,66 +3459,66 @@
       <c r="D15" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="24" t="s">
+      <c r="G15" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24" t="str">
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19" t="str">
         <f>CONCATENATE(E1,".kap")</f>
         <v>MA0112S1.kap</v>
       </c>
-      <c r="Q15" s="24"/>
+      <c r="Q15" s="19"/>
       <c r="S15" s="2" t="s">
         <v>26</v>
       </c>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
-      <c r="W15" s="20" t="str">
+      <c r="W15" s="15" t="str">
         <f>CONCATENATE(E1,"map.BSB")</f>
         <v>MA0112S1map.BSB</v>
       </c>
-      <c r="X15" s="20"/>
-      <c r="Y15" s="20"/>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="15"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
+      <c r="A16" s="5">
         <v>1.6667000000000001E-2</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="74">
         <v>3200</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17">
+      <c r="C16" s="74"/>
+      <c r="D16" s="74">
         <v>2400</v>
       </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="16">
+      <c r="E16" s="74"/>
+      <c r="F16" s="13">
         <v>300</v>
       </c>
       <c r="G16" s="1" t="str">
         <f ca="1">CONCATENATE("!MARI-caribbean ",TEXT(NOW(),"dd/mm/yy"))</f>
-        <v>!MARI-caribbean 11/10/21</v>
-      </c>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
+        <v>!MARI-caribbean 13/10/21</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
       <c r="S16" s="1" t="str">
         <f ca="1">CONCATENATE("CRR/MARI-caribbean ",TEXT(NOW(),"dd/mm/yy hh:mm:ss"))</f>
-        <v>CRR/MARI-caribbean 11/10/21 21:03:34</v>
+        <v>CRR/MARI-caribbean 13/10/21 12:29:20</v>
       </c>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
@@ -2235,19 +3531,19 @@
       <c r="B17" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="20" t="s">
+      <c r="G17" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
       <c r="S17" s="1" t="s">
         <v>19</v>
       </c>
@@ -2256,7 +3552,7 @@
       <c r="V17" s="1"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
+      <c r="A18" s="6">
         <v>2.7799999999999998E-4</v>
       </c>
       <c r="B18" s="2">
@@ -2266,26 +3562,26 @@
       <c r="C18" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="12">
         <f>B18/D16</f>
         <v>2.7010481633334744</v>
       </c>
       <c r="E18" t="s">
         <v>3</v>
       </c>
-      <c r="G18" s="20" t="s">
+      <c r="G18" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="20"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
       <c r="S18" s="1" t="str">
         <f>CONCATENATE("CHT/NA=",E1,"map,NU=",E1)</f>
         <v>CHT/NA=MA0112S1map,NU=MA0112S1</v>
@@ -2305,53 +3601,53 @@
       <c r="C19" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="12">
         <f>B19/B16</f>
         <v>4.3991594674999961</v>
       </c>
       <c r="E19" t="s">
         <v>2</v>
       </c>
-      <c r="G19" s="20" t="str">
+      <c r="G19" s="15" t="str">
         <f>CONCATENATE("BSB/NA=",B1," ",E1,",NU=",E1,",RA=",B16,",",D16,",DU=",F16)</f>
         <v>BSB/NA=B &amp; NL MA0112S1,NU=MA0112S1,RA=3200,2400,DU=300</v>
       </c>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
       <c r="S19" s="1" t="str">
         <f ca="1">CONCATENATE("CED/SE=01,RE=01,ED=",TEXT(TODAY(),"dd/mm/yy"))</f>
-        <v>CED/SE=01,RE=01,ED=11/10/21</v>
+        <v>CED/SE=01,RE=01,ED=13/10/21</v>
       </c>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A20" s="13">
+      <c r="A20" s="11">
         <v>111139</v>
       </c>
-      <c r="G20" s="20" t="str">
+      <c r="G20" s="15" t="str">
         <f>CONCATENATE("KNP/SC=",B2,",GD=WGS84,PR=MERCATOR,PP=",B9)</f>
         <v>KNP/SC=30000,GD=WGS84,PR=MERCATOR,PP=53.33751</v>
       </c>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="20"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
       <c r="S20" s="1" t="str">
         <f>CONCATENATE("K01/NA=",E1,"map,NU=",E1,",TY=BASE,FN=",E1,"map.KAP")</f>
         <v>K01/NA=MA0112S1map,NU=MA0112S1,TY=BASE,FN=MA0112S1map.KAP</v>
@@ -2361,349 +3657,342 @@
       <c r="V20" s="1"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="G21" s="20" t="str">
+      <c r="G21" s="15" t="str">
         <f>CONCATENATE("    PI=UNKNOWN,SP=UNKNOWN,SK=0.0,TA=0.0")</f>
         <v xml:space="preserve">    PI=UNKNOWN,SP=UNKNOWN,SK=0.0,TA=0.0</v>
       </c>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="19"/>
-      <c r="T21" s="19"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="14"/>
+      <c r="T21" s="14"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="20" t="str">
+      <c r="G22" s="15" t="str">
         <f>CONCATENATE("    UN=METERS,SD=MEAN LOWER LOW WATER,DX=",ROUND(D19,8),",DY=",ROUND(D18,8))</f>
         <v xml:space="preserve">    UN=METERS,SD=MEAN LOWER LOW WATER,DX=4.39915947,DY=2.70104816</v>
       </c>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="20" t="str">
+      <c r="G23" s="15" t="str">
         <f>CONCATENATE("KNQ/EC=RF,GD=NARC,VC=UNKNOWN,SC=MLLW,PC=MC,P1=UNKNOWN,P2=",B9)</f>
         <v>KNQ/EC=RF,GD=NARC,VC=UNKNOWN,SC=MLLW,PC=MC,P1=UNKNOWN,P2=53.33751</v>
       </c>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="20"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="20" t="str">
+      <c r="G24" s="15" t="str">
         <f>CONCATENATE("    P3=NOT_APPLICABLE,P4=NOT_APPLICABLE,GC=MI,RM=POLYNOMIAL")</f>
         <v xml:space="preserve">    P3=NOT_APPLICABLE,P4=NOT_APPLICABLE,GC=MI,RM=POLYNOMIAL</v>
       </c>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="20"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="20" t="s">
+      <c r="G25" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="20"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="G26" s="20" t="s">
+      <c r="G26" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="20"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="G27" s="20" t="s">
+      <c r="G27" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="20"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="G28" s="20" t="s">
+      <c r="G28" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="20"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="G29" s="20" t="str">
+      <c r="G29" s="15" t="str">
         <f>CONCATENATE("CHT/NA=",B1)</f>
         <v>CHT/NA=B &amp; NL</v>
       </c>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="20"/>
-      <c r="Q29" s="20"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
       <c r="S29" t="str">
         <f>CONCATENATE("imgkap ",E1,".png ",P15," ",E1,"map.kap")</f>
         <v>imgkap MA0112S1.png MA0112S1.kap MA0112S1map.kap</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="G30" s="20" t="str">
+      <c r="G30" s="15" t="str">
         <f>CONCATENATE("REF/1,",B7,C7,D7,C7,B6,C7,F6)</f>
         <v>REF/1,472,1111,53.366674,5.140008</v>
       </c>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="20"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="15"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="G31" s="20" t="str">
+      <c r="G31" s="15" t="str">
         <f>CONCATENATE("REF/2,",B13,C13,D13,C13,B12,C13,F12)</f>
         <v>REF/2,472,1761,53.308346,5.140008</v>
       </c>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="20"/>
-      <c r="P31" s="20"/>
-      <c r="Q31" s="20"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="G32" s="20" t="str">
+      <c r="G32" s="15" t="str">
         <f>CONCATENATE("REF/3,",J7,K7,L7,K7,J6,K7,N6)</f>
         <v>REF/3,1498,424,53.366674,5.215016</v>
       </c>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="20"/>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="20"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="15"/>
     </row>
     <row r="33" spans="7:19" x14ac:dyDescent="0.3">
-      <c r="G33" s="20" t="str">
+      <c r="G33" s="15" t="str">
         <f>CONCATENATE("REF/4,",S7,T7,U7,T7,S6,T7,W6)</f>
         <v>REF/4,2207,424,53.366674,5.266672</v>
       </c>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="20"/>
-      <c r="O33" s="20"/>
-      <c r="P33" s="20"/>
-      <c r="Q33" s="20"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="15"/>
     </row>
     <row r="34" spans="7:19" x14ac:dyDescent="0.3">
-      <c r="G34" s="20" t="str">
+      <c r="G34" s="15" t="str">
         <f>CONCATENATE("REF/5,",S13,T13,U13,T13,S12,T13,W12)</f>
         <v>REF/5,2207,1761,53.308346,5.266672</v>
       </c>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="20"/>
-      <c r="O34" s="20"/>
-      <c r="P34" s="20"/>
-      <c r="Q34" s="20"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="15"/>
     </row>
     <row r="35" spans="7:19" x14ac:dyDescent="0.3">
-      <c r="G35" s="20" t="str">
+      <c r="G35" s="15" t="str">
         <f>CONCATENATE("PLY/1,",B12,",",F12)</f>
         <v>PLY/1,53.308346,5.140008</v>
       </c>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="20"/>
-      <c r="N35" s="20"/>
-      <c r="O35" s="20"/>
-      <c r="P35" s="20"/>
-      <c r="Q35" s="20"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="15"/>
     </row>
     <row r="36" spans="7:19" x14ac:dyDescent="0.3">
-      <c r="G36" s="20" t="str">
+      <c r="G36" s="15" t="str">
         <f>CONCATENATE("PLY/2,",B6,",",F6)</f>
         <v>PLY/2,53.366674,5.140008</v>
       </c>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="20"/>
-      <c r="M36" s="20"/>
-      <c r="N36" s="20"/>
-      <c r="O36" s="20"/>
-      <c r="P36" s="20"/>
-      <c r="Q36" s="20"/>
-      <c r="S36" s="19"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="15"/>
+      <c r="P36" s="15"/>
+      <c r="Q36" s="15"/>
+      <c r="S36" s="14"/>
     </row>
     <row r="37" spans="7:19" x14ac:dyDescent="0.3">
-      <c r="G37" s="20" t="str">
+      <c r="G37" s="15" t="str">
         <f>CONCATENATE("PLY/3,",J6,",",N6)</f>
         <v>PLY/3,53.366674,5.215016</v>
       </c>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="20"/>
-      <c r="P37" s="20"/>
-      <c r="Q37" s="20"/>
-      <c r="S37" s="19"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="15"/>
+      <c r="Q37" s="15"/>
+      <c r="S37" s="14"/>
     </row>
     <row r="38" spans="7:19" x14ac:dyDescent="0.3">
-      <c r="G38" s="20" t="str">
+      <c r="G38" s="15" t="str">
         <f>CONCATENATE("PLY/4,",S6,",",W6)</f>
         <v>PLY/4,53.366674,5.266672</v>
       </c>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20"/>
-      <c r="N38" s="20"/>
-      <c r="O38" s="20"/>
-      <c r="P38" s="20"/>
-      <c r="Q38" s="20"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="15"/>
+      <c r="P38" s="15"/>
+      <c r="Q38" s="15"/>
     </row>
     <row r="39" spans="7:19" x14ac:dyDescent="0.3">
-      <c r="G39" s="20" t="str">
+      <c r="G39" s="15" t="str">
         <f>CONCATENATE("PLY/5,",S12,",",W12)</f>
         <v>PLY/5,53.308346,5.266672</v>
       </c>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="20"/>
-      <c r="N39" s="20"/>
-      <c r="O39" s="20"/>
-      <c r="P39" s="20"/>
-      <c r="Q39" s="20"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="15"/>
+      <c r="P39" s="15"/>
+      <c r="Q39" s="15"/>
     </row>
     <row r="40" spans="7:19" x14ac:dyDescent="0.3">
-      <c r="G40" s="20" t="s">
+      <c r="G40" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="20"/>
-      <c r="L40" s="20"/>
-      <c r="M40" s="20"/>
-      <c r="N40" s="20"/>
-      <c r="O40" s="20"/>
-      <c r="P40" s="20"/>
-      <c r="Q40" s="20"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="15"/>
+      <c r="P40" s="15"/>
+      <c r="Q40" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="F12:H12"/>
     <mergeCell ref="S12:U12"/>
     <mergeCell ref="W12:Y12"/>
     <mergeCell ref="C1:D1"/>
@@ -2712,6 +4001,13 @@
     <mergeCell ref="S6:U6"/>
     <mergeCell ref="W6:Y6"/>
     <mergeCell ref="N6:P6"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:H12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/chart calc.xlsx
+++ b/chart calc.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bastiaan Maijen\Desktop\imgkap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA75734-A46B-4E94-8151-A31B9A7BA1A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0EAF893-6BE8-4B19-BFB8-33B7FFFAEF17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-264" yWindow="2472" windowWidth="20316" windowHeight="10512" xr2:uid="{6C215D96-3E45-4724-8C29-D814B73E4063}"/>
+    <workbookView xWindow="11124" yWindow="384" windowWidth="10392" windowHeight="11352" xr2:uid="{6C215D96-3E45-4724-8C29-D814B73E4063}"/>
   </bookViews>
   <sheets>
     <sheet name="BL TR" sheetId="1" r:id="rId1"/>
     <sheet name="TL BR" sheetId="3" r:id="rId2"/>
     <sheet name="5point test" sheetId="2" r:id="rId3"/>
+    <sheet name="MODS" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,8 +36,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="96">
   <si>
     <t>per min</t>
   </si>
@@ -188,15 +211,15 @@
     <t>MA0139S2</t>
   </si>
   <si>
-    <t>MA2593S0</t>
-  </si>
-  <si>
     <t>E</t>
   </si>
   <si>
     <t>N</t>
   </si>
   <si>
+    <t>W</t>
+  </si>
+  <si>
     <t>FILL IN</t>
   </si>
   <si>
@@ -207,15 +230,136 @@
   </si>
   <si>
     <t>COPY THIS</t>
+  </si>
+  <si>
+    <t>DEPTH</t>
+  </si>
+  <si>
+    <t>METERS</t>
+  </si>
+  <si>
+    <t>99,99,99</t>
+  </si>
+  <si>
+    <t>REF/1,346,682,18.44003032826062,-64.7564608888889</t>
+  </si>
+  <si>
+    <t>REF/2,346,5361,18.239025547141548,-64.7564608888889</t>
+  </si>
+  <si>
+    <t>REF/3,7270,682,18.44003032826062,-64.44228988888888</t>
+  </si>
+  <si>
+    <t>REF/4,7270,5361,18.239025547141548,-64.44228988888888</t>
+  </si>
+  <si>
+    <t>PLY/1,18.239025547141548,-64.7564608888889</t>
+  </si>
+  <si>
+    <t>PLY/2,18.44003032826062,-64.7564608888889</t>
+  </si>
+  <si>
+    <t>PLY/3,18.44003032826062,-64.44228988888888</t>
+  </si>
+  <si>
+    <t>PLY/4,18.239025547141548,-64.44228988888888</t>
+  </si>
+  <si>
+    <t>OFFSET</t>
+  </si>
+  <si>
+    <t>Pixel count</t>
+  </si>
+  <si>
+    <t>1 min</t>
+  </si>
+  <si>
+    <t>PIXELS</t>
+  </si>
+  <si>
+    <t>seconds</t>
+  </si>
+  <si>
+    <t>REVERSE LAT</t>
+  </si>
+  <si>
+    <t>output:</t>
+  </si>
+  <si>
+    <t>down</t>
+  </si>
+  <si>
+    <t>up</t>
+  </si>
+  <si>
+    <t>R,sec</t>
+  </si>
+  <si>
+    <t>D,sec</t>
+  </si>
+  <si>
+    <t>DATA</t>
+  </si>
+  <si>
+    <t>WGS72</t>
+  </si>
+  <si>
+    <t>CHART</t>
+  </si>
+  <si>
+    <t>OFFSET:</t>
+  </si>
+  <si>
+    <t>CORNER:</t>
+  </si>
+  <si>
+    <t>zanderij to WGS 72</t>
+  </si>
+  <si>
+    <t>y(N/S)</t>
+  </si>
+  <si>
+    <t>x(E/W)</t>
+  </si>
+  <si>
+    <t>ZANDERIJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S/DEC : </t>
+  </si>
+  <si>
+    <t>EAST CARIBBEAN</t>
+  </si>
+  <si>
+    <t>NAPARIMA BWI</t>
+  </si>
+  <si>
+    <t>BOGOTA</t>
+  </si>
+  <si>
+    <t>WGS84</t>
+  </si>
+  <si>
+    <t>DEC</t>
+  </si>
+  <si>
+    <t>IGN</t>
+  </si>
+  <si>
+    <t>M25566S1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.0000000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -321,7 +465,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -449,11 +593,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="mediumDashed">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -552,6 +744,62 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -570,6 +818,12 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -579,52 +833,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -643,10 +851,18 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -961,10 +1177,1373 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA0503A-4E69-417A-9999-6C4F14B10F49}">
-  <dimension ref="A1:V46"/>
+  <dimension ref="A1:W63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P47" sqref="P47"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" customWidth="1"/>
+    <col min="4" max="4" width="5.88671875" customWidth="1"/>
+    <col min="5" max="9" width="5.6640625" customWidth="1"/>
+    <col min="12" max="15" width="5.6640625" customWidth="1"/>
+    <col min="16" max="16" width="6.5546875" customWidth="1"/>
+    <col min="17" max="19" width="7.5546875" customWidth="1"/>
+    <col min="20" max="20" width="5.6640625" customWidth="1"/>
+    <col min="21" max="21" width="12.33203125" customWidth="1"/>
+    <col min="22" max="23" width="8.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A1" s="110" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="118" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="80" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="124" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="124"/>
+      <c r="N1" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="O1" s="72" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="120" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="121"/>
+      <c r="C2" s="116" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="J2" s="13"/>
+      <c r="N2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+    </row>
+    <row r="3" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="112" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="113"/>
+      <c r="C3" s="114">
+        <v>15000</v>
+      </c>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="115"/>
+      <c r="N3" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="O3" s="60"/>
+      <c r="Q3" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="R3" s="80"/>
+      <c r="S3" s="80"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" s="40"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="46">
+        <f>D5*0.6</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="22">
+        <f>H5*0.6</f>
+        <v>12</v>
+      </c>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" s="63"/>
+      <c r="N4" s="22">
+        <f>IF(O4="DEC",N5*0.6,N5)</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="R4" s="22">
+        <f>IF(Q4="DEC",R5*0.6,R5)</f>
+        <v>30</v>
+      </c>
+      <c r="S4" s="23"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5" s="24"/>
+      <c r="B5" s="46">
+        <f>L5</f>
+        <v>16</v>
+      </c>
+      <c r="C5" s="46">
+        <f t="shared" ref="C5:D5" si="0">M5</f>
+        <v>7</v>
+      </c>
+      <c r="D5" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="46" t="str">
+        <f>O5</f>
+        <v>N</v>
+      </c>
+      <c r="F5" s="46">
+        <f>F11</f>
+        <v>61</v>
+      </c>
+      <c r="G5" s="46">
+        <f t="shared" ref="G5:H5" si="1">G11</f>
+        <v>34</v>
+      </c>
+      <c r="H5" s="46">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="I5" s="46" t="str">
+        <f>I11</f>
+        <v>W</v>
+      </c>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="47">
+        <v>16</v>
+      </c>
+      <c r="M5" s="47">
+        <v>7</v>
+      </c>
+      <c r="N5" s="47">
+        <v>0</v>
+      </c>
+      <c r="O5" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="P5" s="47">
+        <v>61</v>
+      </c>
+      <c r="Q5" s="47">
+        <v>32</v>
+      </c>
+      <c r="R5" s="47">
+        <v>50</v>
+      </c>
+      <c r="S5" s="69" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="24"/>
+      <c r="B6" s="122">
+        <f>L6</f>
+        <v>16.114447502000001</v>
+      </c>
+      <c r="C6" s="123"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="122">
+        <f>F12</f>
+        <v>-61.574222086000006</v>
+      </c>
+      <c r="G6" s="123"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="122">
+        <f>IF(O5="S",(L5+(M5*$A$19)+((N4+D14+N8)*$A$21))*-1,L5+(M5*$A$19)+((N4+D14)*$A$21))</f>
+        <v>16.114447502000001</v>
+      </c>
+      <c r="M6" s="122"/>
+      <c r="N6" s="122"/>
+      <c r="O6" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="P6" s="122" cm="1">
+        <f t="array" ref="P6">IF(S5="W",(P5+(Q5*$A$19)+((R4+H14+R8)*$A$21))*-1,P5+(Q5*$A$19)+(M15(R4+H14)*$A$21))</f>
+        <v>-61.545892086000002</v>
+      </c>
+      <c r="Q6" s="122"/>
+      <c r="R6" s="122"/>
+      <c r="S6" s="55" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A7" s="24"/>
+      <c r="B7" s="68">
+        <f>B13</f>
+        <v>323</v>
+      </c>
+      <c r="C7" s="46">
+        <f>M7</f>
+        <v>356</v>
+      </c>
+      <c r="D7" s="38"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="47">
+        <v>1593</v>
+      </c>
+      <c r="M7" s="47">
+        <v>356</v>
+      </c>
+      <c r="N7" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="26"/>
+      <c r="U7" s="89"/>
+      <c r="V7" s="90">
+        <f>ROUNDDOWN(V8,0)</f>
+        <v>24</v>
+      </c>
+      <c r="W7" s="91">
+        <f>V8-V7</f>
+        <v>0.47520336233307248</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" s="24"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="103" t="s">
+        <v>77</v>
+      </c>
+      <c r="K8" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="L8" s="47">
+        <v>0</v>
+      </c>
+      <c r="M8" s="47">
+        <v>0</v>
+      </c>
+      <c r="N8" s="47">
+        <v>0</v>
+      </c>
+      <c r="O8" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="P8" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="47">
+        <v>0</v>
+      </c>
+      <c r="R8" s="47">
+        <v>0</v>
+      </c>
+      <c r="S8" s="69" t="s">
+        <v>52</v>
+      </c>
+      <c r="U8" s="92">
+        <f>ROUNDDOWN(U9,0)</f>
+        <v>68</v>
+      </c>
+      <c r="V8" s="93">
+        <f>(U9-U8)/A19</f>
+        <v>24.475203362333072</v>
+      </c>
+      <c r="W8" s="94">
+        <f>W7*100</f>
+        <v>47.520336233307248</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="46">
+        <f>(B12+B6)/2</f>
+        <v>16.099448502000001</v>
+      </c>
+      <c r="C9" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="122">
+        <f>B6-B12</f>
+        <v>2.9997999999999081E-2</v>
+      </c>
+      <c r="E9" s="122"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="122">
+        <f>P6-F6</f>
+        <v>2.8330000000003963E-2</v>
+      </c>
+      <c r="I9" s="122"/>
+      <c r="J9" s="104">
+        <v>12</v>
+      </c>
+      <c r="K9" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="26"/>
+      <c r="U9" s="95">
+        <v>68.407928214440005</v>
+      </c>
+      <c r="V9" s="87"/>
+      <c r="W9" s="96"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" s="24"/>
+      <c r="B10" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="46">
+        <f>IF(C10="DEC",D11*0.6,D11)</f>
+        <v>12</v>
+      </c>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="H10" s="46">
+        <f>IF(G10="DEC",H11*0.6,H11)</f>
+        <v>12</v>
+      </c>
+      <c r="J10" s="105" t="s">
+        <v>78</v>
+      </c>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="46">
+        <f>N11*0.6</f>
+        <v>12</v>
+      </c>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="46">
+        <f>R11*0.6</f>
+        <v>30</v>
+      </c>
+      <c r="S10" s="26"/>
+      <c r="U10" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="V10" s="25"/>
+      <c r="W10" s="26"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11" s="24"/>
+      <c r="B11" s="47">
+        <v>16</v>
+      </c>
+      <c r="C11" s="47">
+        <v>5</v>
+      </c>
+      <c r="D11" s="47">
+        <v>20</v>
+      </c>
+      <c r="E11" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="47">
+        <v>61</v>
+      </c>
+      <c r="G11" s="47">
+        <v>34</v>
+      </c>
+      <c r="H11" s="47">
+        <v>20</v>
+      </c>
+      <c r="I11" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11" s="106">
+        <f>J9/0.6</f>
+        <v>20</v>
+      </c>
+      <c r="K11" s="25"/>
+      <c r="L11" s="46">
+        <f>B11</f>
+        <v>16</v>
+      </c>
+      <c r="M11" s="46">
+        <f t="shared" ref="M11:N11" si="2">C11</f>
+        <v>5</v>
+      </c>
+      <c r="N11" s="46">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="O11" s="46" t="str">
+        <f>E11</f>
+        <v>N</v>
+      </c>
+      <c r="P11" s="46">
+        <f>P5</f>
+        <v>61</v>
+      </c>
+      <c r="Q11" s="46">
+        <f t="shared" ref="Q11:R11" si="3">Q5</f>
+        <v>32</v>
+      </c>
+      <c r="R11" s="46">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="S11" s="70" t="str">
+        <f>S5</f>
+        <v>W</v>
+      </c>
+      <c r="U11" s="24"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="26"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12" s="24"/>
+      <c r="B12" s="122">
+        <f>IF(E11="S",(B11+(C11*$A$19)+((D10+D14)*$A$21))*-1,B11+(C11*$A$19)+((D10+D14)*$A$21))</f>
+        <v>16.084449502000002</v>
+      </c>
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="122">
+        <f>IF(I11="W",(F11+(G11*$A$19)+((H10+H14)*$A$21))*-1,F11+(G11*$A$19)+((H10+H14)*$A$21))</f>
+        <v>-61.574222086000006</v>
+      </c>
+      <c r="G12" s="122"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="122">
+        <f>B12</f>
+        <v>16.084449502000002</v>
+      </c>
+      <c r="M12" s="123"/>
+      <c r="N12" s="123"/>
+      <c r="O12" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="P12" s="122">
+        <f>P6</f>
+        <v>-61.545892086000002</v>
+      </c>
+      <c r="Q12" s="123"/>
+      <c r="R12" s="123"/>
+      <c r="S12" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="U12" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="V12" s="25"/>
+      <c r="W12" s="26"/>
+    </row>
+    <row r="13" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="48">
+        <v>323</v>
+      </c>
+      <c r="C13" s="48">
+        <v>1747</v>
+      </c>
+      <c r="D13" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="56">
+        <f>L7</f>
+        <v>1593</v>
+      </c>
+      <c r="M13" s="56">
+        <f>C13</f>
+        <v>1747</v>
+      </c>
+      <c r="N13" s="61"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="26"/>
+      <c r="U13" s="97">
+        <f>U8</f>
+        <v>68</v>
+      </c>
+      <c r="V13" s="98">
+        <f>V7</f>
+        <v>24</v>
+      </c>
+      <c r="W13" s="99">
+        <f>W8</f>
+        <v>47.520336233307248</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="100" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="85">
+        <v>0</v>
+      </c>
+      <c r="C14" s="85">
+        <v>0</v>
+      </c>
+      <c r="D14" s="85">
+        <f>-8.435+0.444</f>
+        <v>-7.9910000000000005</v>
+      </c>
+      <c r="E14" s="85" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="85">
+        <v>0</v>
+      </c>
+      <c r="G14" s="85">
+        <v>0</v>
+      </c>
+      <c r="H14" s="109">
+        <f>13.137+2</f>
+        <v>15.137</v>
+      </c>
+      <c r="I14" s="85" t="s">
+        <v>52</v>
+      </c>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="32"/>
+      <c r="S14" s="33"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B15" s="80" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="H15" s="77" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" s="74"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="41" t="str">
+        <f>CONCATENATE(C2,".kap")</f>
+        <v>M25566S1.kap</v>
+      </c>
+      <c r="L15" s="26"/>
+      <c r="N15" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="O15" s="63"/>
+      <c r="P15" s="63"/>
+      <c r="Q15" s="63" t="s">
+        <v>72</v>
+      </c>
+      <c r="R15" s="23"/>
+    </row>
+    <row r="16" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H16" s="24"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="26"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="P16" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q16" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="R16" s="55" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B17" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="65"/>
+      <c r="H17" s="27" t="str">
+        <f ca="1">CONCATENATE("!MARI-caribbean ",TEXT(NOW(),"dd/mm/yy"))</f>
+        <v>!MARI-caribbean 26/10/21</v>
+      </c>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="N17" s="53">
+        <f>100/O17</f>
+        <v>0.65359477124183007</v>
+      </c>
+      <c r="O17" s="47">
+        <v>153</v>
+      </c>
+      <c r="P17" s="47">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="46">
+        <f>N17*P17</f>
+        <v>0.65359477124183007</v>
+      </c>
+      <c r="R17" s="70">
+        <f>100-Q17</f>
+        <v>99.346405228758172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="25"/>
+      <c r="F18" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="N18" s="100">
+        <f>100/O18</f>
+        <v>0.64935064935064934</v>
+      </c>
+      <c r="O18" s="85">
+        <v>154</v>
+      </c>
+      <c r="P18" s="85">
+        <v>77</v>
+      </c>
+      <c r="Q18" s="101">
+        <f>N18*P18</f>
+        <v>50</v>
+      </c>
+      <c r="R18" s="102">
+        <f>100-Q18</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="58">
+        <v>1.6667000000000001E-2</v>
+      </c>
+      <c r="B19" s="43">
+        <v>1920</v>
+      </c>
+      <c r="C19" s="44">
+        <v>2400</v>
+      </c>
+      <c r="D19" s="66"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="45">
+        <v>300</v>
+      </c>
+      <c r="H19" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="26"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="H20" s="29" t="str">
+        <f>CONCATENATE("BSB/NA=",C1," ",C2,",NU=",C2,",RA=",B19,",",C19,",DU=",F19)</f>
+        <v>BSB/NA=EAST CARIBBEAN M25566S1,NU=M25566S1,RA=1920,2400,DU=300</v>
+      </c>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="26"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21" s="57">
+        <v>2.7799999999999998E-4</v>
+      </c>
+      <c r="B21" s="2">
+        <f>D9*A23</f>
+        <v>3333.947721999898</v>
+      </c>
+      <c r="C21" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="2">
+        <f>B21/C19</f>
+        <v>1.3891448841666241</v>
+      </c>
+      <c r="E21" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="29" t="str">
+        <f>CONCATENATE("KNP/SC=",C3,",GD=",I2,",PR=MERCATOR,PP=",B9)</f>
+        <v>KNP/SC=15000,GD=WGS84,PR=MERCATOR,PP=16.099448502</v>
+      </c>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="26"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="2">
+        <f>H9*A23</f>
+        <v>3148.5678700004405</v>
+      </c>
+      <c r="C22" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="2">
+        <f>B22/B19</f>
+        <v>1.6398790989585628</v>
+      </c>
+      <c r="E22" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="H22" s="29" t="str">
+        <f>CONCATENATE("    PI=UNKNOWN,SP=UNKNOWN,SK=0.0,TA=0.0")</f>
+        <v xml:space="preserve">    PI=UNKNOWN,SP=UNKNOWN,SK=0.0,TA=0.0</v>
+      </c>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="30"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23" s="59">
+        <v>111139</v>
+      </c>
+      <c r="H23" s="29" t="str">
+        <f>CONCATENATE("    UN=",I1,",SD=MEAN LOWER LOW WATER,DX=",ROUND(D22,8),",DY=",ROUND(D21,8))</f>
+        <v xml:space="preserve">    UN=METERS,SD=MEAN LOWER LOW WATER,DX=1.6398791,DY=1.38914488</v>
+      </c>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="26"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="H24" s="29" t="str">
+        <f>CONCATENATE("KNQ/EC=RF,GD=NARC,VC=UNKNOWN,SC=MLLW,PC=MC,P1=UNKNOWN,P2=",B9)</f>
+        <v>KNQ/EC=RF,GD=NARC,VC=UNKNOWN,SC=MLLW,PC=MC,P1=UNKNOWN,P2=16.099448502</v>
+      </c>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="26"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>59</v>
+      </c>
+      <c r="H25" s="29" t="str">
+        <f>CONCATENATE("    P3=NOT_APPLICABLE,P4=NOT_APPLICABLE,GC=MI,RM=POLYNOMIAL")</f>
+        <v xml:space="preserve">    P3=NOT_APPLICABLE,P4=NOT_APPLICABLE,GC=MI,RM=POLYNOMIAL</v>
+      </c>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="26"/>
+    </row>
+    <row r="26" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>48</v>
+      </c>
+      <c r="H26" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="26"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="N27" s="76"/>
+      <c r="O27" s="76"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="35" t="str">
+        <f>CONCATENATE(C2,"map.BSB")</f>
+        <v>M25566S1map.BSB</v>
+      </c>
+      <c r="R27" s="36"/>
+      <c r="S27" s="37"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>44</v>
+      </c>
+      <c r="H28" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="26"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>47</v>
+      </c>
+      <c r="H29" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="27" t="str">
+        <f ca="1">CONCATENATE("CRR/MARI-caribbean ",TEXT(NOW(),"dd/mm/yy hh:mm:ss"))</f>
+        <v>CRR/MARI-caribbean 26/10/21 19:53:12</v>
+      </c>
+      <c r="N29" s="38"/>
+      <c r="O29" s="38"/>
+      <c r="P29" s="38"/>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="26"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="H30" s="29" t="str">
+        <f>CONCATENATE("CHT/NA=",C1)</f>
+        <v>CHT/NA=EAST CARIBBEAN</v>
+      </c>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="N30" s="38"/>
+      <c r="O30" s="38"/>
+      <c r="P30" s="38"/>
+      <c r="Q30" s="25"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="26"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>87</v>
+      </c>
+      <c r="H31" s="29" t="str">
+        <f>CONCATENATE("REF/1,",B13,",",C13,",",B12,",",F12)</f>
+        <v>REF/1,323,1747,16.084449502,-61.574222086</v>
+      </c>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="27" t="str">
+        <f>CONCATENATE("CHT/NA=",C2,"map,NU=",C2)</f>
+        <v>CHT/NA=M25566S1map,NU=M25566S1</v>
+      </c>
+      <c r="N31" s="38"/>
+      <c r="O31" s="38"/>
+      <c r="P31" s="38"/>
+      <c r="Q31" s="25"/>
+      <c r="R31" s="25"/>
+      <c r="S31" s="26"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>90</v>
+      </c>
+      <c r="H32" s="29" t="str">
+        <f>CONCATENATE("REF/2,",B7,",",C7,",",B6,",",F6)</f>
+        <v>REF/2,323,356,16.114447502,-61.574222086</v>
+      </c>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="27" t="str">
+        <f ca="1">CONCATENATE("CED/SE=01,RE=01,ED=",TEXT(TODAY(),"dd/mm/yy"))</f>
+        <v>CED/SE=01,RE=01,ED=26/10/21</v>
+      </c>
+      <c r="N32" s="38"/>
+      <c r="O32" s="38"/>
+      <c r="P32" s="38"/>
+      <c r="Q32" s="25"/>
+      <c r="R32" s="25"/>
+      <c r="S32" s="26"/>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>80</v>
+      </c>
+      <c r="H33" s="29" t="str">
+        <f>CONCATENATE("REF/3,",L7,",",M7,",",L6,",",P6)</f>
+        <v>REF/3,1593,356,16.114447502,-61.545892086</v>
+      </c>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="27" t="str">
+        <f>CONCATENATE("K01/NA=",C2,"map,NU=",C2,",TY=BASE,FN=",C2,"map.KAP")</f>
+        <v>K01/NA=M25566S1map,NU=M25566S1,TY=BASE,FN=M25566S1map.KAP</v>
+      </c>
+      <c r="N33" s="38"/>
+      <c r="O33" s="38"/>
+      <c r="P33" s="38"/>
+      <c r="Q33" s="25"/>
+      <c r="R33" s="25"/>
+      <c r="S33" s="26"/>
+    </row>
+    <row r="34" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="88">
+        <v>-12.1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34" s="108">
+        <v>-10.3</v>
+      </c>
+      <c r="F34" t="s">
+        <v>52</v>
+      </c>
+      <c r="H34" s="29" t="str">
+        <f>CONCATENATE("REF/4,",L13,",",M13,",",L12,",",P12)</f>
+        <v>REF/4,1593,1747,16.084449502,-61.545892086</v>
+      </c>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="39"/>
+      <c r="O34" s="32"/>
+      <c r="P34" s="32"/>
+      <c r="Q34" s="32"/>
+      <c r="R34" s="32"/>
+      <c r="S34" s="33"/>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35">
+        <v>-8.4350000000000005</v>
+      </c>
+      <c r="E35">
+        <v>13.137</v>
+      </c>
+      <c r="H35" s="29" t="str">
+        <f>CONCATENATE("PLY/1,",B12,",",F12)</f>
+        <v>PLY/1,16.084449502,-61.574222086</v>
+      </c>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="N35" s="76"/>
+      <c r="O35" s="76"/>
+      <c r="P35" s="34"/>
+      <c r="Q35" s="34"/>
+      <c r="R35" s="34"/>
+      <c r="S35" s="34"/>
+      <c r="T35" s="34"/>
+      <c r="U35" s="34"/>
+      <c r="V35" s="23"/>
+    </row>
+    <row r="36" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="H36" s="29" t="str">
+        <f>CONCATENATE("PLY/2,",B6,",",F6)</f>
+        <v>PLY/2,16.114447502,-61.574222086</v>
+      </c>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="27" t="str">
+        <f>CONCATENATE("imgkap ",C2,".png ",K15," ",C2,"map.kap -p MAP")</f>
+        <v>imgkap M25566S1.png M25566S1.kap M25566S1map.kap -p MAP</v>
+      </c>
+      <c r="N36" s="25"/>
+      <c r="O36" s="25"/>
+      <c r="P36" s="25"/>
+      <c r="Q36" s="25"/>
+      <c r="R36" s="25"/>
+      <c r="S36" s="25"/>
+      <c r="T36" s="25"/>
+      <c r="U36" s="25"/>
+      <c r="V36" s="26"/>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="H37" s="29" t="str">
+        <f>CONCATENATE("PLY/3,",L6,",",P6)</f>
+        <v>PLY/3,16.114447502,-61.545892086</v>
+      </c>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="25"/>
+      <c r="O37" s="25"/>
+      <c r="P37" s="25"/>
+      <c r="Q37" s="25"/>
+      <c r="R37" s="25"/>
+      <c r="S37" s="25"/>
+      <c r="T37" s="25"/>
+      <c r="U37" s="25"/>
+      <c r="V37" s="26"/>
+    </row>
+    <row r="38" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="H38" s="29" t="str">
+        <f>CONCATENATE("PLY/4,",L12,",",P12)</f>
+        <v>PLY/4,16.084449502,-61.545892086</v>
+      </c>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="28"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="N38" s="74"/>
+      <c r="O38" s="25"/>
+      <c r="P38" s="25"/>
+      <c r="Q38" s="25"/>
+      <c r="R38" s="25"/>
+      <c r="S38" s="25"/>
+      <c r="T38" s="25"/>
+      <c r="U38" s="25"/>
+      <c r="V38" s="26"/>
+    </row>
+    <row r="39" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H39" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="I39" s="83"/>
+      <c r="J39" s="83"/>
+      <c r="K39" s="83"/>
+      <c r="L39" s="84"/>
+      <c r="M39" s="42" t="str">
+        <f>CONCATENATE("imgkap ",C2,".png ",K15," ",C2,"map.kap")</f>
+        <v>imgkap M25566S1.png M25566S1.kap M25566S1map.kap</v>
+      </c>
+      <c r="N39" s="25"/>
+      <c r="O39" s="25"/>
+      <c r="P39" s="25"/>
+      <c r="Q39" s="25"/>
+      <c r="R39" s="25"/>
+      <c r="S39" s="25"/>
+      <c r="T39" s="25"/>
+      <c r="U39" s="25"/>
+      <c r="V39" s="26"/>
+    </row>
+    <row r="40" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H40" s="86" t="str">
+        <f>CONCATENATE("!MOD:",B14,".",C14,"'",D14,"''",E14," ",F14,".",G14,"'",H14,"''",I14)</f>
+        <v>!MOD:0.0'-7.991''N 0.0'15.137''W</v>
+      </c>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="26"/>
+      <c r="M40" s="32"/>
+      <c r="N40" s="32"/>
+      <c r="O40" s="32"/>
+      <c r="P40" s="32"/>
+      <c r="Q40" s="32"/>
+      <c r="R40" s="32"/>
+      <c r="S40" s="32"/>
+      <c r="T40" s="32"/>
+      <c r="U40" s="32"/>
+      <c r="V40" s="33"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="H41" s="107" t="str">
+        <f>CONCATENATE("!BL ",B11,"'",C11,"'",D11,"'",C10,"'",E11,"'",F11,"'",G11,"'",H11,"'",G10,"'",I11,"/",B13,"-",C13)</f>
+        <v>!BL 16'5'20'DEC'N'61'34'20'DEC'W/323-1747</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="H42" s="107" t="str">
+        <f>CONCATENATE("!TR ",L5,"'",M5,"'",N5,"'",O4,"'",O5,"'",P5,"'",Q5,"'",R5,"'",Q4,"'",S5,"/",L7,"-",M7)</f>
+        <v>!TR 16'7'0'DEC'N'61'32'50'DEC'W/1593-356</v>
+      </c>
+      <c r="M42" s="1" t="str">
+        <f>K15</f>
+        <v>M25566S1.kap</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="H43" s="81" t="str">
+        <f>CONCATENATE("!EXTRACT FOR BSB FILE:  (REMOVE !)")</f>
+        <v>!EXTRACT FOR BSB FILE:  (REMOVE !)</v>
+      </c>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="26"/>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="H44" s="81" t="str">
+        <f>CONCATENATE("!",Q27)</f>
+        <v>!M25566S1map.BSB</v>
+      </c>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="26"/>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="H45" s="81" t="str">
+        <f ca="1">CONCATENATE("!",M29)</f>
+        <v>!CRR/MARI-caribbean 26/10/21 19:53:12</v>
+      </c>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="26"/>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="H46" s="81" t="str">
+        <f>CONCATENATE("!",M30)</f>
+        <v>!VER/3.0</v>
+      </c>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="26"/>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="H47" s="81" t="str">
+        <f>CONCATENATE("!",M31)</f>
+        <v>!CHT/NA=M25566S1map,NU=M25566S1</v>
+      </c>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="26"/>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="H48" s="81" t="str">
+        <f ca="1">CONCATENATE("!",M32)</f>
+        <v>!CED/SE=01,RE=01,ED=26/10/21</v>
+      </c>
+      <c r="L48" s="26"/>
+    </row>
+    <row r="49" spans="6:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H49" s="67" t="str">
+        <f>CONCATENATE("!",M33)</f>
+        <v>!K01/NA=M25566S1map,NU=M25566S1,TY=BASE,FN=M25566S1map.KAP</v>
+      </c>
+      <c r="I49" s="32"/>
+      <c r="J49" s="32"/>
+      <c r="K49" s="32"/>
+      <c r="L49" s="33"/>
+    </row>
+    <row r="56" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F56" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F57" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F58" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F59" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="60" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F60" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="61" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F61" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F62" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F63" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03AC3309-8AD8-4BC4-9E13-9A43EE9FCF2D}">
+  <dimension ref="A1:V47"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q48" sqref="Q48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -978,63 +2557,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="125" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="70" t="s">
+      <c r="B1" s="126"/>
+      <c r="C1" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="71"/>
-      <c r="J1" s="13" t="s">
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="80" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="124" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="124"/>
+      <c r="L1" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="86" t="s">
+      <c r="M1" s="72" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="68" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="69"/>
-      <c r="J2" s="2" t="s">
+      <c r="B2" s="128"/>
+      <c r="C2" s="116" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="117"/>
+      <c r="L2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
     </row>
     <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="66">
-        <v>150000</v>
-      </c>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="67"/>
-      <c r="J3" s="60" t="s">
+      <c r="B3" s="130"/>
+      <c r="C3" s="114">
+        <v>25000</v>
+      </c>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="115"/>
+      <c r="L3" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="K3" s="60"/>
-      <c r="Q3" s="100" t="s">
+      <c r="M3" s="60"/>
+      <c r="Q3" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="R3" s="100"/>
-      <c r="S3" s="100"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="80"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="40"/>
@@ -1042,7 +2628,7 @@
       <c r="C4" s="25"/>
       <c r="D4" s="46">
         <f>D5*0.6</f>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E4" s="25"/>
       <c r="F4" s="25"/>
@@ -1060,130 +2646,130 @@
       <c r="M4" s="63"/>
       <c r="N4" s="22">
         <f>N5*0.6</f>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="O4" s="34"/>
       <c r="P4" s="34"/>
       <c r="Q4" s="34"/>
       <c r="R4" s="22">
         <f>R5*0.6</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S4" s="23"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="24"/>
-      <c r="B5" s="46">
-        <f>L5</f>
-        <v>53</v>
-      </c>
-      <c r="C5" s="46">
-        <f t="shared" ref="C5:D5" si="0">M5</f>
+      <c r="B5" s="47">
+        <v>51</v>
+      </c>
+      <c r="C5" s="47">
+        <v>19</v>
+      </c>
+      <c r="D5" s="47">
+        <v>0</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="47">
+        <v>4</v>
+      </c>
+      <c r="G5" s="47">
+        <v>10</v>
+      </c>
+      <c r="H5" s="47">
+        <v>0</v>
+      </c>
+      <c r="I5" s="13" t="s">
         <v>50</v>
-      </c>
-      <c r="D5" s="46">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="E5" s="46" t="str">
-        <f>O5</f>
-        <v>N</v>
-      </c>
-      <c r="F5" s="46">
-        <f>F11</f>
-        <v>4</v>
-      </c>
-      <c r="G5" s="46">
-        <f t="shared" ref="G5:H5" si="1">G11</f>
-        <v>9</v>
-      </c>
-      <c r="H5" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I5" s="46" t="str">
-        <f>I11</f>
-        <v>E</v>
       </c>
       <c r="J5" s="25"/>
       <c r="K5" s="25"/>
-      <c r="L5" s="47">
-        <v>53</v>
-      </c>
-      <c r="M5" s="47">
+      <c r="L5" s="46">
+        <f>B5</f>
+        <v>51</v>
+      </c>
+      <c r="M5" s="46">
+        <f t="shared" ref="M5:N5" si="0">C5</f>
+        <v>19</v>
+      </c>
+      <c r="N5" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O5" s="2" t="str">
+        <f>E5</f>
+        <v>N</v>
+      </c>
+      <c r="P5" s="46">
+        <f>P11</f>
+        <v>4</v>
+      </c>
+      <c r="Q5" s="46">
+        <f t="shared" ref="Q5:R5" si="1">Q11</f>
+        <v>17</v>
+      </c>
+      <c r="R5" s="46">
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="N5" s="47">
-        <v>30</v>
-      </c>
-      <c r="O5" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="P5" s="47">
-        <v>6</v>
-      </c>
-      <c r="Q5" s="47">
-        <v>40</v>
-      </c>
-      <c r="R5" s="47">
-        <v>0</v>
-      </c>
-      <c r="S5" s="83" t="s">
-        <v>51</v>
+      <c r="S5" s="70" t="str">
+        <f>S11</f>
+        <v>E</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="24"/>
-      <c r="B6" s="72">
+      <c r="B6" s="122">
         <f>L6</f>
-        <v>53.838354000000002</v>
-      </c>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
+        <v>51.316673000000002</v>
+      </c>
+      <c r="C6" s="123"/>
+      <c r="D6" s="123"/>
       <c r="E6" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="72">
-        <f>F12</f>
-        <v>4.1500029999999999</v>
-      </c>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
+      <c r="F6" s="122">
+        <f>IF(I5="W",(F11+(G11*$A$19)+((H11/100*60)*$A$21))*-1,F11+(G11*$A$19)+((H11/100*60)*$A$21))</f>
+        <v>4.1666699999999999</v>
+      </c>
+      <c r="G6" s="123"/>
+      <c r="H6" s="123"/>
       <c r="I6" s="54" t="s">
         <v>38</v>
       </c>
       <c r="J6" s="25"/>
       <c r="K6" s="25"/>
-      <c r="L6" s="72">
-        <f>IF(O5="S",(L5+(M5*$A$19)+((N5/100*60)*$A$21))*-1,L5+(M5*$A$19)+((N5/100*60)*$A$21))</f>
-        <v>53.838354000000002</v>
-      </c>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
+      <c r="L6" s="122">
+        <f>IF(O5="S",(L5+(M5*$A$19)+(((N5+D14)/100*60)*$A$21))*-1,L5+(M5*$A$19)+(((N5+D14)/100*60)*$A$21))</f>
+        <v>51.316673000000002</v>
+      </c>
+      <c r="M6" s="122"/>
+      <c r="N6" s="122"/>
       <c r="O6" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="72">
+      <c r="P6" s="122">
         <f>IF(S5="W",(P5+(Q5*$A$19)+((R5/100*60)*$A$21))*-1,P5+(Q5*$A$19)+((R5/100*60)*$A$21))</f>
-        <v>6.6666800000000004</v>
-      </c>
-      <c r="Q6" s="72"/>
-      <c r="R6" s="72"/>
+        <v>4.2916789999999994</v>
+      </c>
+      <c r="Q6" s="122"/>
+      <c r="R6" s="122"/>
       <c r="S6" s="55" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="24"/>
-      <c r="B7" s="82">
-        <f>B13</f>
-        <v>434</v>
-      </c>
-      <c r="C7" s="46">
-        <f>M7</f>
-        <v>332</v>
-      </c>
-      <c r="D7" s="38"/>
+      <c r="B7" s="71">
+        <v>396</v>
+      </c>
+      <c r="C7" s="47">
+        <v>298</v>
+      </c>
+      <c r="D7" s="62" t="s">
+        <v>36</v>
+      </c>
       <c r="E7" s="25"/>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
@@ -1191,15 +2777,15 @@
       <c r="I7" s="25"/>
       <c r="J7" s="25"/>
       <c r="K7" s="25"/>
-      <c r="L7" s="47">
-        <v>7332</v>
-      </c>
-      <c r="M7" s="47">
-        <v>332</v>
-      </c>
-      <c r="N7" s="54" t="s">
-        <v>36</v>
-      </c>
+      <c r="L7" s="68">
+        <f>L13</f>
+        <v>1763</v>
+      </c>
+      <c r="M7" s="46">
+        <f>C7</f>
+        <v>298</v>
+      </c>
+      <c r="O7" s="25"/>
       <c r="P7" s="25"/>
       <c r="Q7" s="25"/>
       <c r="R7" s="25"/>
@@ -1232,25 +2818,25 @@
       </c>
       <c r="B9" s="46">
         <f>(B12+B6)/2</f>
-        <v>53.394186500000004</v>
+        <v>51.283338999999998</v>
       </c>
       <c r="C9" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="72">
+      <c r="D9" s="122">
         <f>B6-B12</f>
-        <v>0.88833500000000498</v>
-      </c>
-      <c r="E9" s="72"/>
+        <v>6.666799999999995E-2</v>
+      </c>
+      <c r="E9" s="122"/>
       <c r="F9" s="25"/>
       <c r="G9" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="72">
+      <c r="H9" s="122">
         <f>P6-F6</f>
-        <v>2.5166770000000005</v>
-      </c>
-      <c r="I9" s="72"/>
+        <v>0.12500899999999948</v>
+      </c>
+      <c r="I9" s="122"/>
       <c r="J9" s="25"/>
       <c r="K9" s="25"/>
       <c r="L9" s="25"/>
@@ -1291,153 +2877,170 @@
       <c r="Q10" s="25"/>
       <c r="R10" s="46">
         <f>R11*0.6</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S10" s="26"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="24"/>
-      <c r="B11" s="47">
-        <v>52</v>
-      </c>
-      <c r="C11" s="47">
-        <v>57</v>
-      </c>
-      <c r="D11" s="47">
-        <v>0</v>
-      </c>
-      <c r="E11" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="47">
-        <v>4</v>
-      </c>
-      <c r="G11" s="47">
-        <v>9</v>
-      </c>
-      <c r="H11" s="47">
-        <v>0</v>
-      </c>
-      <c r="I11" s="47" t="s">
+      <c r="B11" s="46">
+        <f>L11</f>
         <v>51</v>
       </c>
-      <c r="K11" s="25"/>
-      <c r="L11" s="46">
-        <f>B11</f>
-        <v>52</v>
-      </c>
-      <c r="M11" s="46">
-        <f t="shared" ref="M11:N11" si="2">C11</f>
-        <v>57</v>
-      </c>
-      <c r="N11" s="46">
+      <c r="C11" s="46">
+        <f t="shared" ref="C11:D11" si="2">M11</f>
+        <v>15</v>
+      </c>
+      <c r="D11" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O11" s="46" t="str">
-        <f>E11</f>
+      <c r="E11" s="2" t="str">
+        <f>O11</f>
         <v>N</v>
       </c>
-      <c r="P11" s="46">
-        <f>P5</f>
-        <v>6</v>
-      </c>
-      <c r="Q11" s="46">
-        <f t="shared" ref="Q11:R11" si="3">Q5</f>
-        <v>40</v>
-      </c>
-      <c r="R11" s="46">
+      <c r="F11" s="46">
+        <f>F5</f>
+        <v>4</v>
+      </c>
+      <c r="G11" s="46">
+        <f t="shared" ref="G11:H11" si="3">G5</f>
+        <v>10</v>
+      </c>
+      <c r="H11" s="46">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S11" s="84" t="str">
-        <f>S5</f>
+      <c r="I11" s="46" t="str">
+        <f>I5</f>
         <v>E</v>
+      </c>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="47">
+        <v>51</v>
+      </c>
+      <c r="M11" s="47">
+        <v>15</v>
+      </c>
+      <c r="N11" s="47">
+        <v>0</v>
+      </c>
+      <c r="O11" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="P11" s="47">
+        <v>4</v>
+      </c>
+      <c r="Q11" s="47">
+        <v>17</v>
+      </c>
+      <c r="R11" s="47">
+        <v>50</v>
+      </c>
+      <c r="S11" s="69" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="24"/>
-      <c r="B12" s="72">
-        <f>IF(E11="S",(B11+(C11*$A$19)+((D11/100*60)*$A$21))*-1,B11+(C11*$A$19)+((D11/100*60)*$A$21))</f>
-        <v>52.950018999999998</v>
-      </c>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
+      <c r="B12" s="122">
+        <f>IF(E11="S",(B11+(C11*$A$19)+(((D11+D14)/100*60)*$A$21))*-1,B11+(C11*$A$19)+(((D11+D14)/100*60)*$A$21))</f>
+        <v>51.250005000000002</v>
+      </c>
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
       <c r="E12" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="72">
-        <f>IF(I11="W",(F11+(G11*$A$19)+((H11/100*60)*$A$21))*-1,F11+(G11*$A$19)+((H11/100*60)*$A$21))</f>
-        <v>4.1500029999999999</v>
-      </c>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
+      <c r="F12" s="122">
+        <f>IF(I11="W",(F11+(G11*$A$19)+(((H11+H14)/100*60)*$A$21))*-1,F11+(G11*$A$19)+(((H11+H14)/100*60)*$A$21))</f>
+        <v>4.1666699999999999</v>
+      </c>
+      <c r="G12" s="122"/>
+      <c r="H12" s="122"/>
       <c r="I12" s="54" t="s">
         <v>38</v>
       </c>
       <c r="J12" s="25"/>
       <c r="K12" s="25"/>
-      <c r="L12" s="72">
+      <c r="L12" s="122">
         <f>B12</f>
-        <v>52.950018999999998</v>
-      </c>
-      <c r="M12" s="73"/>
-      <c r="N12" s="73"/>
+        <v>51.250005000000002</v>
+      </c>
+      <c r="M12" s="123"/>
+      <c r="N12" s="123"/>
       <c r="O12" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="P12" s="72">
+      <c r="P12" s="122">
         <f>P6</f>
-        <v>6.6666800000000004</v>
-      </c>
-      <c r="Q12" s="73"/>
-      <c r="R12" s="73"/>
-      <c r="S12" s="54" t="s">
+        <v>4.2916789999999994</v>
+      </c>
+      <c r="Q12" s="123"/>
+      <c r="R12" s="123"/>
+      <c r="S12" s="55" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="24"/>
-      <c r="B13" s="48">
-        <v>434</v>
-      </c>
-      <c r="C13" s="48">
-        <v>4417</v>
-      </c>
-      <c r="D13" s="62" t="s">
-        <v>36</v>
-      </c>
+      <c r="B13" s="56">
+        <f>B7</f>
+        <v>396</v>
+      </c>
+      <c r="C13" s="56">
+        <f>M13</f>
+        <v>1463</v>
+      </c>
+      <c r="E13" s="25"/>
       <c r="F13" s="49"/>
       <c r="G13" s="49"/>
       <c r="H13" s="49"/>
       <c r="I13" s="25"/>
       <c r="J13" s="25"/>
       <c r="K13" s="25"/>
-      <c r="L13" s="56">
-        <f>L7</f>
-        <v>7332</v>
-      </c>
-      <c r="M13" s="56">
-        <f>C13</f>
-        <v>4417</v>
-      </c>
-      <c r="N13" s="61"/>
+      <c r="L13" s="48">
+        <v>1763</v>
+      </c>
+      <c r="M13" s="48">
+        <v>1463</v>
+      </c>
+      <c r="N13" s="54" t="s">
+        <v>36</v>
+      </c>
       <c r="O13" s="25"/>
       <c r="P13" s="49"/>
-      <c r="Q13" s="50"/>
-      <c r="R13" s="50"/>
+      <c r="Q13" s="51"/>
+      <c r="R13" s="51"/>
       <c r="S13" s="26"/>
     </row>
     <row r="14" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="31"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
+      <c r="B14" s="85">
+        <v>0</v>
+      </c>
+      <c r="C14" s="85">
+        <v>0</v>
+      </c>
+      <c r="D14" s="85">
+        <v>0</v>
+      </c>
+      <c r="E14" s="85" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="85">
+        <v>0</v>
+      </c>
+      <c r="G14" s="85">
+        <v>0</v>
+      </c>
+      <c r="H14" s="85">
+        <v>0</v>
+      </c>
+      <c r="I14" s="85" t="s">
+        <v>52</v>
+      </c>
       <c r="J14" s="32"/>
       <c r="K14" s="32"/>
       <c r="L14" s="32"/>
@@ -1450,19 +3053,19 @@
       <c r="S14" s="33"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B15" s="100" t="s">
+      <c r="B15" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="100"/>
-      <c r="D15" s="100"/>
-      <c r="H15" s="97" t="s">
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="H15" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="I15" s="94"/>
-      <c r="J15" s="94"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="74"/>
       <c r="K15" s="41" t="str">
         <f>CONCATENATE(C2,".kap")</f>
-        <v>MA2593S0.kap</v>
+        <v>MA0139S2.kap</v>
       </c>
       <c r="L15" s="26"/>
     </row>
@@ -1483,7 +3086,7 @@
       <c r="F17" s="65"/>
       <c r="H17" s="27" t="str">
         <f ca="1">CONCATENATE("!MARI-caribbean ",TEXT(NOW(),"dd/mm/yy"))</f>
-        <v>!MARI-caribbean 13/10/21</v>
+        <v>!MARI-caribbean 26/10/21</v>
       </c>
       <c r="I17" s="28"/>
       <c r="J17" s="28"/>
@@ -1517,12 +3120,12 @@
         <v>1.6667000000000001E-2</v>
       </c>
       <c r="B19" s="43">
-        <v>7680</v>
-      </c>
-      <c r="C19" s="44">
-        <v>4800</v>
-      </c>
-      <c r="D19" s="79"/>
+        <v>2560</v>
+      </c>
+      <c r="C19" s="52">
+        <v>1920</v>
+      </c>
+      <c r="D19" s="66"/>
       <c r="E19" s="52"/>
       <c r="F19" s="45">
         <v>300</v>
@@ -1547,7 +3150,7 @@
       <c r="E20" s="60"/>
       <c r="H20" s="29" t="str">
         <f>CONCATENATE("BSB/NA=",C1," ",C2,",NU=",C2,",RA=",B19,",",C19,",DU=",F19)</f>
-        <v>BSB/NA=B and NL MA2593S0,NU=MA2593S0,RA=7680,4800,DU=300</v>
+        <v>BSB/NA=B and NL MA0139S2,NU=MA0139S2,RA=2560,1920,DU=300</v>
       </c>
       <c r="I20" s="28"/>
       <c r="J20" s="28"/>
@@ -1560,21 +3163,21 @@
       </c>
       <c r="B21" s="2">
         <f>D9*A23</f>
-        <v>98728.663565000548</v>
+        <v>7409.4148519999944</v>
       </c>
       <c r="C21" s="60" t="s">
         <v>7</v>
       </c>
       <c r="D21" s="2">
         <f>B21/C19</f>
-        <v>20.56847157604178</v>
+        <v>3.8590702354166639</v>
       </c>
       <c r="E21" s="60" t="s">
         <v>3</v>
       </c>
       <c r="H21" s="29" t="str">
         <f>CONCATENATE("KNP/SC=",C3,",GD=WGS84,PR=MERCATOR,PP=",B9)</f>
-        <v>KNP/SC=150000,GD=WGS84,PR=MERCATOR,PP=53.3941865</v>
+        <v>KNP/SC=25000,GD=WGS84,PR=MERCATOR,PP=51.283339</v>
       </c>
       <c r="I21" s="28"/>
       <c r="J21" s="28"/>
@@ -1587,14 +3190,14 @@
       </c>
       <c r="B22" s="2">
         <f>H9*A23</f>
-        <v>279700.96510300005</v>
+        <v>13893.375250999943</v>
       </c>
       <c r="C22" s="60" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="2">
         <f>B22/B19</f>
-        <v>36.419396497786465</v>
+        <v>5.4270997074218528</v>
       </c>
       <c r="E22" s="60" t="s">
         <v>2</v>
@@ -1613,8 +3216,8 @@
         <v>111139</v>
       </c>
       <c r="H23" s="29" t="str">
-        <f>CONCATENATE("    UN=METERS,SD=MEAN LOWER LOW WATER,DX=",ROUND(D22,8),",DY=",ROUND(D21,8))</f>
-        <v xml:space="preserve">    UN=METERS,SD=MEAN LOWER LOW WATER,DX=36.4193965,DY=20.56847158</v>
+        <f>CONCATENATE("    UN=",I1,",SD=MEAN LOWER LOW WATER,DX=",ROUND(D22,8),",DY=",ROUND(D21,8))</f>
+        <v xml:space="preserve">    UN=METERS,SD=MEAN LOWER LOW WATER,DX=5.42709971,DY=3.85907024</v>
       </c>
       <c r="I23" s="28"/>
       <c r="J23" s="28"/>
@@ -1624,7 +3227,7 @@
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="H24" s="29" t="str">
         <f>CONCATENATE("KNQ/EC=RF,GD=NARC,VC=UNKNOWN,SC=MLLW,PC=MC,P1=UNKNOWN,P2=",B9)</f>
-        <v>KNQ/EC=RF,GD=NARC,VC=UNKNOWN,SC=MLLW,PC=MC,P1=UNKNOWN,P2=53.3941865</v>
+        <v>KNQ/EC=RF,GD=NARC,VC=UNKNOWN,SC=MLLW,PC=MC,P1=UNKNOWN,P2=51.283339</v>
       </c>
       <c r="I24" s="28"/>
       <c r="J24" s="28"/>
@@ -1667,15 +3270,15 @@
       <c r="J27" s="28"/>
       <c r="K27" s="28"/>
       <c r="L27" s="26"/>
-      <c r="M27" s="95" t="s">
+      <c r="M27" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="N27" s="96"/>
-      <c r="O27" s="96"/>
+      <c r="N27" s="78"/>
+      <c r="O27" s="78"/>
       <c r="P27" s="34"/>
       <c r="Q27" s="35" t="str">
         <f>CONCATENATE(C2,"map.BSB")</f>
-        <v>MA2593S0map.BSB</v>
+        <v>MA0139S2map.BSB</v>
       </c>
       <c r="R27" s="36"/>
       <c r="S27" s="37"/>
@@ -1712,7 +3315,7 @@
       <c r="L29" s="25"/>
       <c r="M29" s="27" t="str">
         <f ca="1">CONCATENATE("CRR/MARI-caribbean ",TEXT(NOW(),"dd/mm/yy hh:mm:ss"))</f>
-        <v>CRR/MARI-caribbean 13/10/21 12:29:20</v>
+        <v>CRR/MARI-caribbean 26/10/21 19:53:12</v>
       </c>
       <c r="N29" s="38"/>
       <c r="O29" s="38"/>
@@ -1743,7 +3346,7 @@
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="H31" s="29" t="str">
         <f>CONCATENATE("REF/1,",B7,",",C7,",",B6,",",F6)</f>
-        <v>REF/1,434,332,53.838354,4.150003</v>
+        <v>REF/1,396,298,51.316673,4.16667</v>
       </c>
       <c r="I31" s="28"/>
       <c r="J31" s="28"/>
@@ -1751,7 +3354,7 @@
       <c r="L31" s="25"/>
       <c r="M31" s="27" t="str">
         <f>CONCATENATE("CHT/NA=",C2,"map,NU=",C2)</f>
-        <v>CHT/NA=MA2593S0map,NU=MA2593S0</v>
+        <v>CHT/NA=MA0139S2map,NU=MA0139S2</v>
       </c>
       <c r="N31" s="38"/>
       <c r="O31" s="38"/>
@@ -1763,7 +3366,7 @@
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="H32" s="29" t="str">
         <f>CONCATENATE("REF/2,",B13,",",C13,",",B12,",",F12)</f>
-        <v>REF/2,434,4417,52.950019,4.150003</v>
+        <v>REF/2,396,1463,51.250005,4.16667</v>
       </c>
       <c r="I32" s="28"/>
       <c r="J32" s="28"/>
@@ -1771,7 +3374,7 @@
       <c r="L32" s="25"/>
       <c r="M32" s="27" t="str">
         <f ca="1">CONCATENATE("CED/SE=01,RE=01,ED=",TEXT(TODAY(),"dd/mm/yy"))</f>
-        <v>CED/SE=01,RE=01,ED=13/10/21</v>
+        <v>CED/SE=01,RE=01,ED=26/10/21</v>
       </c>
       <c r="N32" s="38"/>
       <c r="O32" s="38"/>
@@ -1783,7 +3386,7 @@
     <row r="33" spans="8:22" x14ac:dyDescent="0.3">
       <c r="H33" s="29" t="str">
         <f>CONCATENATE("REF/3,",L7,",",M7,",",L6,",",P6)</f>
-        <v>REF/3,7332,332,53.838354,6.66668</v>
+        <v>REF/3,1763,298,51.316673,4.291679</v>
       </c>
       <c r="I33" s="28"/>
       <c r="J33" s="28"/>
@@ -1791,7 +3394,7 @@
       <c r="L33" s="25"/>
       <c r="M33" s="27" t="str">
         <f>CONCATENATE("K01/NA=",C2,"map,NU=",C2,",TY=BASE,FN=",C2,"map.KAP")</f>
-        <v>K01/NA=MA2593S0map,NU=MA2593S0,TY=BASE,FN=MA2593S0map.KAP</v>
+        <v>K01/NA=MA0139S2map,NU=MA0139S2,TY=BASE,FN=MA0139S2map.KAP</v>
       </c>
       <c r="N33" s="38"/>
       <c r="O33" s="38"/>
@@ -1803,7 +3406,7 @@
     <row r="34" spans="8:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H34" s="29" t="str">
         <f>CONCATENATE("REF/4,",L13,",",M13,",",L12,",",P12)</f>
-        <v>REF/4,7332,4417,52.950019,6.66668</v>
+        <v>REF/4,1763,1463,51.250005,4.291679</v>
       </c>
       <c r="I34" s="28"/>
       <c r="J34" s="28"/>
@@ -1820,17 +3423,17 @@
     <row r="35" spans="8:22" x14ac:dyDescent="0.3">
       <c r="H35" s="29" t="str">
         <f>CONCATENATE("PLY/1,",B12,",",F12)</f>
-        <v>PLY/1,52.950019,4.150003</v>
+        <v>PLY/1,51.250005,4.16667</v>
       </c>
       <c r="I35" s="28"/>
       <c r="J35" s="28"/>
       <c r="K35" s="28"/>
       <c r="L35" s="26"/>
-      <c r="M35" s="95" t="s">
+      <c r="M35" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="N35" s="96"/>
-      <c r="O35" s="96"/>
+      <c r="N35" s="78"/>
+      <c r="O35" s="78"/>
       <c r="P35" s="34"/>
       <c r="Q35" s="34"/>
       <c r="R35" s="34"/>
@@ -1842,7 +3445,7 @@
     <row r="36" spans="8:22" x14ac:dyDescent="0.3">
       <c r="H36" s="29" t="str">
         <f>CONCATENATE("PLY/2,",B6,",",F6)</f>
-        <v>PLY/2,53.838354,4.150003</v>
+        <v>PLY/2,51.316673,4.16667</v>
       </c>
       <c r="I36" s="28"/>
       <c r="J36" s="28"/>
@@ -1850,7 +3453,7 @@
       <c r="L36" s="26"/>
       <c r="M36" s="27" t="str">
         <f>CONCATENATE("imgkap ",C2,".png ",K15," ",C2,"map.kap -p MAP")</f>
-        <v>imgkap MA2593S0.png MA2593S0.kap MA2593S0map.kap -p MAP</v>
+        <v>imgkap MA0139S2.png MA0139S2.kap MA0139S2map.kap -p MAP</v>
       </c>
       <c r="N36" s="25"/>
       <c r="O36" s="25"/>
@@ -1865,7 +3468,7 @@
     <row r="37" spans="8:22" x14ac:dyDescent="0.3">
       <c r="H37" s="29" t="str">
         <f>CONCATENATE("PLY/3,",L6,",",P6)</f>
-        <v>PLY/3,53.838354,6.66668</v>
+        <v>PLY/3,51.316673,4.291679</v>
       </c>
       <c r="I37" s="28"/>
       <c r="J37" s="28"/>
@@ -1885,16 +3488,16 @@
     <row r="38" spans="8:22" x14ac:dyDescent="0.3">
       <c r="H38" s="29" t="str">
         <f>CONCATENATE("PLY/4,",L12,",",P12)</f>
-        <v>PLY/4,52.950019,6.66668</v>
+        <v>PLY/4,51.250005,4.291679</v>
       </c>
       <c r="I38" s="28"/>
       <c r="J38" s="28"/>
       <c r="K38" s="28"/>
       <c r="L38" s="26"/>
-      <c r="M38" s="93" t="s">
+      <c r="M38" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="N38" s="94"/>
+      <c r="N38" s="79"/>
       <c r="O38" s="25"/>
       <c r="P38" s="25"/>
       <c r="Q38" s="25"/>
@@ -1905,16 +3508,16 @@
       <c r="V38" s="26"/>
     </row>
     <row r="39" spans="8:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H39" s="108" t="s">
+      <c r="H39" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="I39" s="109"/>
-      <c r="J39" s="109"/>
-      <c r="K39" s="109"/>
-      <c r="L39" s="110"/>
+      <c r="I39" s="83"/>
+      <c r="J39" s="83"/>
+      <c r="K39" s="83"/>
+      <c r="L39" s="84"/>
       <c r="M39" s="42" t="str">
         <f>CONCATENATE("imgkap ",C2,".png ",K15," ",C2,"map.kap")</f>
-        <v>imgkap MA2593S0.png MA2593S0.kap MA2593S0map.kap</v>
+        <v>imgkap MA0139S2.png MA0139S2.kap MA0139S2map.kap</v>
       </c>
       <c r="N39" s="25"/>
       <c r="O39" s="25"/>
@@ -1927,1086 +3530,12 @@
       <c r="V39" s="26"/>
     </row>
     <row r="40" spans="8:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H40" s="107" t="str">
-        <f>CONCATENATE("!EXTRACT FOR BSB FILE:  (REMOVE !)")</f>
-        <v>!EXTRACT FOR BSB FILE:  (REMOVE !)</v>
-      </c>
-      <c r="I40" s="25"/>
-      <c r="J40" s="25"/>
+      <c r="H40" s="81" t="str">
+        <f>CONCATENATE("!MOD:",B14,".",C14,"'",D14,"''",E14," ",F14,".",G14,"'",H14,"''",I14)</f>
+        <v>!MOD:0.0'0''N 0.0'0''W</v>
+      </c>
       <c r="K40" s="25"/>
       <c r="L40" s="26"/>
-      <c r="M40" s="32"/>
-      <c r="N40" s="32"/>
-      <c r="O40" s="32"/>
-      <c r="P40" s="32"/>
-      <c r="Q40" s="32"/>
-      <c r="R40" s="32"/>
-      <c r="S40" s="32"/>
-      <c r="T40" s="32"/>
-      <c r="U40" s="32"/>
-      <c r="V40" s="33"/>
-    </row>
-    <row r="41" spans="8:22" x14ac:dyDescent="0.3">
-      <c r="H41" s="107" t="str">
-        <f>CONCATENATE("!",Q27)</f>
-        <v>!MA2593S0map.BSB</v>
-      </c>
-      <c r="I41" s="25"/>
-      <c r="J41" s="25"/>
-      <c r="K41" s="25"/>
-      <c r="L41" s="26"/>
-    </row>
-    <row r="42" spans="8:22" x14ac:dyDescent="0.3">
-      <c r="H42" s="107" t="str">
-        <f ca="1">CONCATENATE("!",M29)</f>
-        <v>!CRR/MARI-caribbean 13/10/21 12:29:20</v>
-      </c>
-      <c r="I42" s="25"/>
-      <c r="J42" s="25"/>
-      <c r="K42" s="25"/>
-      <c r="L42" s="26"/>
-    </row>
-    <row r="43" spans="8:22" x14ac:dyDescent="0.3">
-      <c r="H43" s="107" t="str">
-        <f t="shared" ref="H43:H46" si="4">CONCATENATE("!",M30)</f>
-        <v>!VER/3.0</v>
-      </c>
-      <c r="I43" s="25"/>
-      <c r="J43" s="25"/>
-      <c r="K43" s="25"/>
-      <c r="L43" s="26"/>
-    </row>
-    <row r="44" spans="8:22" x14ac:dyDescent="0.3">
-      <c r="H44" s="107" t="str">
-        <f t="shared" si="4"/>
-        <v>!CHT/NA=MA2593S0map,NU=MA2593S0</v>
-      </c>
-      <c r="I44" s="25"/>
-      <c r="J44" s="25"/>
-      <c r="K44" s="25"/>
-      <c r="L44" s="26"/>
-    </row>
-    <row r="45" spans="8:22" x14ac:dyDescent="0.3">
-      <c r="H45" s="107" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>!CED/SE=01,RE=01,ED=13/10/21</v>
-      </c>
-      <c r="I45" s="25"/>
-      <c r="J45" s="25"/>
-      <c r="K45" s="25"/>
-      <c r="L45" s="26"/>
-    </row>
-    <row r="46" spans="8:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H46" s="80" t="str">
-        <f t="shared" si="4"/>
-        <v>!K01/NA=MA2593S0map,NU=MA2593S0,TY=BASE,FN=MA2593S0map.KAP</v>
-      </c>
-      <c r="I46" s="32"/>
-      <c r="J46" s="32"/>
-      <c r="K46" s="32"/>
-      <c r="L46" s="33"/>
-    </row>
-  </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="P6:R6"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="P12:R12"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="A2:B2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03AC3309-8AD8-4BC4-9E13-9A43EE9FCF2D}">
-  <dimension ref="A1:V46"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="9.88671875" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" customWidth="1"/>
-    <col min="4" max="4" width="5.88671875" customWidth="1"/>
-    <col min="5" max="9" width="5.6640625" customWidth="1"/>
-    <col min="12" max="20" width="5.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="101" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="70" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="71"/>
-      <c r="J1" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="K1" s="86" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="103" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="104"/>
-      <c r="C2" s="68" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="69"/>
-      <c r="J2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-    </row>
-    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="105" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="106"/>
-      <c r="C3" s="66">
-        <v>25000</v>
-      </c>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="67"/>
-      <c r="J3" s="60" t="s">
-        <v>55</v>
-      </c>
-      <c r="K3" s="60"/>
-      <c r="Q3" s="100" t="s">
-        <v>42</v>
-      </c>
-      <c r="R3" s="100"/>
-      <c r="S3" s="100"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="40"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="46">
-        <f>D5*0.6</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="22">
-        <f>H5*0.6</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="63" t="s">
-        <v>39</v>
-      </c>
-      <c r="M4" s="63"/>
-      <c r="N4" s="22">
-        <f>N5*0.6</f>
-        <v>0</v>
-      </c>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="22">
-        <f>R5*0.6</f>
-        <v>30</v>
-      </c>
-      <c r="S4" s="23"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="24"/>
-      <c r="B5" s="47">
-        <v>51</v>
-      </c>
-      <c r="C5" s="47">
-        <v>19</v>
-      </c>
-      <c r="D5" s="47">
-        <v>0</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="47">
-        <v>4</v>
-      </c>
-      <c r="G5" s="47">
-        <v>10</v>
-      </c>
-      <c r="H5" s="47">
-        <v>0</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="46">
-        <f>B5</f>
-        <v>51</v>
-      </c>
-      <c r="M5" s="46">
-        <f t="shared" ref="M5:N5" si="0">C5</f>
-        <v>19</v>
-      </c>
-      <c r="N5" s="46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O5" s="2" t="str">
-        <f>E5</f>
-        <v>N</v>
-      </c>
-      <c r="P5" s="46">
-        <f>P11</f>
-        <v>4</v>
-      </c>
-      <c r="Q5" s="46">
-        <f t="shared" ref="Q5:R5" si="1">Q11</f>
-        <v>17</v>
-      </c>
-      <c r="R5" s="46">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="S5" s="84" t="str">
-        <f>S11</f>
-        <v>E</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="24"/>
-      <c r="B6" s="72">
-        <f>L6</f>
-        <v>51.316673000000002</v>
-      </c>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="72">
-        <f>IF(I5="W",(F11+(G11*$A$19)+((H11/100*60)*$A$21))*-1,F11+(G11*$A$19)+((H11/100*60)*$A$21))</f>
-        <v>4.1666699999999999</v>
-      </c>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="72">
-        <f>IF(O11="S",(L5+(M5*$A$19)+((N5/100*60)*$A$21))*-1,L5+(M5*$A$19)+((N5/100*60)*$A$21))</f>
-        <v>51.316673000000002</v>
-      </c>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="P6" s="72">
-        <f>IF(S11="W",(P5+(Q5*$A$19)+((R5/100*60)*$A$21))*-1,P5+(Q5*$A$19)+((R5/100*60)*$A$21))</f>
-        <v>4.2916789999999994</v>
-      </c>
-      <c r="Q6" s="72"/>
-      <c r="R6" s="72"/>
-      <c r="S6" s="55" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="24"/>
-      <c r="B7" s="85">
-        <v>396</v>
-      </c>
-      <c r="C7" s="47">
-        <v>298</v>
-      </c>
-      <c r="D7" s="62" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="82">
-        <f>L13</f>
-        <v>1763</v>
-      </c>
-      <c r="M7" s="46">
-        <f>C7</f>
-        <v>298</v>
-      </c>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="26"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="24"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="26"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="46">
-        <f>(B12+B6)/2</f>
-        <v>51.283338999999998</v>
-      </c>
-      <c r="C9" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="72">
-        <f>B6-B12</f>
-        <v>6.666799999999995E-2</v>
-      </c>
-      <c r="E9" s="72"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="72">
-        <f>P6-F6</f>
-        <v>0.12500899999999948</v>
-      </c>
-      <c r="I9" s="72"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="26"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" s="24"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="46">
-        <f>D11*0.6</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="46">
-        <f>H11*0.6</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="46">
-        <f>N11*0.6</f>
-        <v>0</v>
-      </c>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="46">
-        <f>R11*0.6</f>
-        <v>30</v>
-      </c>
-      <c r="S10" s="26"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="24"/>
-      <c r="B11" s="46">
-        <f>L11</f>
-        <v>51</v>
-      </c>
-      <c r="C11" s="46">
-        <f t="shared" ref="C11:D11" si="2">M11</f>
-        <v>15</v>
-      </c>
-      <c r="D11" s="46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="2" t="str">
-        <f>O11</f>
-        <v>N</v>
-      </c>
-      <c r="F11" s="46">
-        <f>F5</f>
-        <v>4</v>
-      </c>
-      <c r="G11" s="46">
-        <f t="shared" ref="G11:H11" si="3">G5</f>
-        <v>10</v>
-      </c>
-      <c r="H11" s="46">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="46" t="str">
-        <f>I5</f>
-        <v>E</v>
-      </c>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="47">
-        <v>51</v>
-      </c>
-      <c r="M11" s="47">
-        <v>15</v>
-      </c>
-      <c r="N11" s="47">
-        <v>0</v>
-      </c>
-      <c r="O11" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="P11" s="47">
-        <v>4</v>
-      </c>
-      <c r="Q11" s="47">
-        <v>17</v>
-      </c>
-      <c r="R11" s="47">
-        <v>50</v>
-      </c>
-      <c r="S11" s="83" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="24"/>
-      <c r="B12" s="72">
-        <f>IF(E5="S",(B11+(C11*$A$19)+((D11/100*60)*$A$21))*-1,B11+(C11*$A$19)+((D11/100*60)*$A$21))</f>
-        <v>51.250005000000002</v>
-      </c>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="72">
-        <f>F11+(G11*$A$19)+((H11/100*60)*$A$21)</f>
-        <v>4.1666699999999999</v>
-      </c>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="72">
-        <f>B12</f>
-        <v>51.250005000000002</v>
-      </c>
-      <c r="M12" s="73"/>
-      <c r="N12" s="73"/>
-      <c r="O12" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="P12" s="72">
-        <f>P6</f>
-        <v>4.2916789999999994</v>
-      </c>
-      <c r="Q12" s="73"/>
-      <c r="R12" s="73"/>
-      <c r="S12" s="55" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="24"/>
-      <c r="B13" s="56">
-        <f>B7</f>
-        <v>396</v>
-      </c>
-      <c r="C13" s="56">
-        <f>M13</f>
-        <v>1463</v>
-      </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="48">
-        <v>1763</v>
-      </c>
-      <c r="M13" s="48">
-        <v>1463</v>
-      </c>
-      <c r="N13" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="O13" s="25"/>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="51"/>
-      <c r="S13" s="26"/>
-    </row>
-    <row r="14" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="31"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="32"/>
-      <c r="S14" s="33"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B15" s="100" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="100"/>
-      <c r="D15" s="100"/>
-      <c r="H15" s="97" t="s">
-        <v>27</v>
-      </c>
-      <c r="I15" s="94"/>
-      <c r="J15" s="94"/>
-      <c r="K15" s="41" t="str">
-        <f>CONCATENATE(C2,".kap")</f>
-        <v>MA0139S2.kap</v>
-      </c>
-      <c r="L15" s="26"/>
-    </row>
-    <row r="16" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H16" s="24"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="26"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B17" s="64" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="65"/>
-      <c r="H17" s="27" t="str">
-        <f ca="1">CONCATENATE("!MARI-caribbean ",TEXT(NOW(),"dd/mm/yy"))</f>
-        <v>!MARI-caribbean 13/10/21</v>
-      </c>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="26"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="H18" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="26"/>
-    </row>
-    <row r="19" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="58">
-        <v>1.6667000000000001E-2</v>
-      </c>
-      <c r="B19" s="43">
-        <v>2560</v>
-      </c>
-      <c r="C19" s="52">
-        <v>1920</v>
-      </c>
-      <c r="D19" s="79"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="45">
-        <v>300</v>
-      </c>
-      <c r="H19" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="26"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="H20" s="29" t="str">
-        <f>CONCATENATE("BSB/NA=",C1," ",C2,",NU=",C2,",RA=",B19,",",C19,",DU=",F19)</f>
-        <v>BSB/NA=B and NL MA0139S2,NU=MA0139S2,RA=2560,1920,DU=300</v>
-      </c>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="26"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" s="57">
-        <v>2.7799999999999998E-4</v>
-      </c>
-      <c r="B21" s="2">
-        <f>D9*A23</f>
-        <v>7409.4148519999944</v>
-      </c>
-      <c r="C21" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="2">
-        <f>B21/C19</f>
-        <v>3.8590702354166639</v>
-      </c>
-      <c r="E21" s="60" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="29" t="str">
-        <f>CONCATENATE("KNP/SC=",C3,",GD=WGS84,PR=MERCATOR,PP=",B9)</f>
-        <v>KNP/SC=25000,GD=WGS84,PR=MERCATOR,PP=51.283339</v>
-      </c>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="26"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A22" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="2">
-        <f>H9*A23</f>
-        <v>13893.375250999943</v>
-      </c>
-      <c r="C22" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="2">
-        <f>B22/B19</f>
-        <v>5.4270997074218528</v>
-      </c>
-      <c r="E22" s="60" t="s">
-        <v>2</v>
-      </c>
-      <c r="H22" s="29" t="str">
-        <f>CONCATENATE("    PI=UNKNOWN,SP=UNKNOWN,SK=0.0,TA=0.0")</f>
-        <v xml:space="preserve">    PI=UNKNOWN,SP=UNKNOWN,SK=0.0,TA=0.0</v>
-      </c>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="30"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" s="59">
-        <v>111139</v>
-      </c>
-      <c r="H23" s="29" t="str">
-        <f>CONCATENATE("    UN=METERS,SD=MEAN LOWER LOW WATER,DX=",ROUND(D22,8),",DY=",ROUND(D21,8))</f>
-        <v xml:space="preserve">    UN=METERS,SD=MEAN LOWER LOW WATER,DX=5.42709971,DY=3.85907024</v>
-      </c>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="26"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="H24" s="29" t="str">
-        <f>CONCATENATE("KNQ/EC=RF,GD=NARC,VC=UNKNOWN,SC=MLLW,PC=MC,P1=UNKNOWN,P2=",B9)</f>
-        <v>KNQ/EC=RF,GD=NARC,VC=UNKNOWN,SC=MLLW,PC=MC,P1=UNKNOWN,P2=51.283339</v>
-      </c>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="26"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>45</v>
-      </c>
-      <c r="H25" s="29" t="str">
-        <f>CONCATENATE("    P3=NOT_APPLICABLE,P4=NOT_APPLICABLE,GC=MI,RM=POLYNOMIAL")</f>
-        <v xml:space="preserve">    P3=NOT_APPLICABLE,P4=NOT_APPLICABLE,GC=MI,RM=POLYNOMIAL</v>
-      </c>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="26"/>
-    </row>
-    <row r="26" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" t="s">
-        <v>48</v>
-      </c>
-      <c r="H26" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="26"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>46</v>
-      </c>
-      <c r="H27" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="95" t="s">
-        <v>26</v>
-      </c>
-      <c r="N27" s="98"/>
-      <c r="O27" s="98"/>
-      <c r="P27" s="34"/>
-      <c r="Q27" s="35" t="str">
-        <f>CONCATENATE(C2,"map.BSB")</f>
-        <v>MA0139S2map.BSB</v>
-      </c>
-      <c r="R27" s="36"/>
-      <c r="S27" s="37"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>44</v>
-      </c>
-      <c r="H28" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="25"/>
-      <c r="P28" s="25"/>
-      <c r="Q28" s="25"/>
-      <c r="R28" s="25"/>
-      <c r="S28" s="26"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>47</v>
-      </c>
-      <c r="H29" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="27" t="str">
-        <f ca="1">CONCATENATE("CRR/MARI-caribbean ",TEXT(NOW(),"dd/mm/yy hh:mm:ss"))</f>
-        <v>CRR/MARI-caribbean 13/10/21 12:29:20</v>
-      </c>
-      <c r="N29" s="38"/>
-      <c r="O29" s="38"/>
-      <c r="P29" s="38"/>
-      <c r="Q29" s="25"/>
-      <c r="R29" s="25"/>
-      <c r="S29" s="26"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="H30" s="29" t="str">
-        <f>CONCATENATE("CHT/NA=",C1)</f>
-        <v>CHT/NA=B and NL</v>
-      </c>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="N30" s="38"/>
-      <c r="O30" s="38"/>
-      <c r="P30" s="38"/>
-      <c r="Q30" s="25"/>
-      <c r="R30" s="25"/>
-      <c r="S30" s="26"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="H31" s="29" t="str">
-        <f>CONCATENATE("REF/1,",B7,",",C7,",",B6,",",F6)</f>
-        <v>REF/1,396,298,51.316673,4.16667</v>
-      </c>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="27" t="str">
-        <f>CONCATENATE("CHT/NA=",C2,"map,NU=",C2)</f>
-        <v>CHT/NA=MA0139S2map,NU=MA0139S2</v>
-      </c>
-      <c r="N31" s="38"/>
-      <c r="O31" s="38"/>
-      <c r="P31" s="38"/>
-      <c r="Q31" s="25"/>
-      <c r="R31" s="25"/>
-      <c r="S31" s="26"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="H32" s="29" t="str">
-        <f>CONCATENATE("REF/2,",B13,",",C13,",",B12,",",F12)</f>
-        <v>REF/2,396,1463,51.250005,4.16667</v>
-      </c>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="27" t="str">
-        <f ca="1">CONCATENATE("CED/SE=01,RE=01,ED=",TEXT(TODAY(),"dd/mm/yy"))</f>
-        <v>CED/SE=01,RE=01,ED=13/10/21</v>
-      </c>
-      <c r="N32" s="38"/>
-      <c r="O32" s="38"/>
-      <c r="P32" s="38"/>
-      <c r="Q32" s="25"/>
-      <c r="R32" s="25"/>
-      <c r="S32" s="26"/>
-    </row>
-    <row r="33" spans="8:22" x14ac:dyDescent="0.3">
-      <c r="H33" s="29" t="str">
-        <f>CONCATENATE("REF/3,",L7,",",M7,",",L6,",",P6)</f>
-        <v>REF/3,1763,298,51.316673,4.291679</v>
-      </c>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="27" t="str">
-        <f>CONCATENATE("K01/NA=",C2,"map,NU=",C2,",TY=BASE,FN=",C2,"map.KAP")</f>
-        <v>K01/NA=MA0139S2map,NU=MA0139S2,TY=BASE,FN=MA0139S2map.KAP</v>
-      </c>
-      <c r="N33" s="38"/>
-      <c r="O33" s="38"/>
-      <c r="P33" s="38"/>
-      <c r="Q33" s="25"/>
-      <c r="R33" s="25"/>
-      <c r="S33" s="26"/>
-    </row>
-    <row r="34" spans="8:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H34" s="29" t="str">
-        <f>CONCATENATE("REF/4,",L13,",",M13,",",L12,",",P12)</f>
-        <v>REF/4,1763,1463,51.250005,4.291679</v>
-      </c>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="39"/>
-      <c r="O34" s="32"/>
-      <c r="P34" s="32"/>
-      <c r="Q34" s="32"/>
-      <c r="R34" s="32"/>
-      <c r="S34" s="33"/>
-    </row>
-    <row r="35" spans="8:22" x14ac:dyDescent="0.3">
-      <c r="H35" s="29" t="str">
-        <f>CONCATENATE("PLY/1,",B12,",",F12)</f>
-        <v>PLY/1,51.250005,4.16667</v>
-      </c>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="26"/>
-      <c r="M35" s="95" t="s">
-        <v>30</v>
-      </c>
-      <c r="N35" s="98"/>
-      <c r="O35" s="98"/>
-      <c r="P35" s="34"/>
-      <c r="Q35" s="34"/>
-      <c r="R35" s="34"/>
-      <c r="S35" s="34"/>
-      <c r="T35" s="34"/>
-      <c r="U35" s="34"/>
-      <c r="V35" s="23"/>
-    </row>
-    <row r="36" spans="8:22" x14ac:dyDescent="0.3">
-      <c r="H36" s="29" t="str">
-        <f>CONCATENATE("PLY/2,",B6,",",F6)</f>
-        <v>PLY/2,51.316673,4.16667</v>
-      </c>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="28"/>
-      <c r="L36" s="26"/>
-      <c r="M36" s="27" t="str">
-        <f>CONCATENATE("imgkap ",C2,".png ",K15," ",C2,"map.kap -p MAP")</f>
-        <v>imgkap MA0139S2.png MA0139S2.kap MA0139S2map.kap -p MAP</v>
-      </c>
-      <c r="N36" s="25"/>
-      <c r="O36" s="25"/>
-      <c r="P36" s="25"/>
-      <c r="Q36" s="25"/>
-      <c r="R36" s="25"/>
-      <c r="S36" s="25"/>
-      <c r="T36" s="25"/>
-      <c r="U36" s="25"/>
-      <c r="V36" s="26"/>
-    </row>
-    <row r="37" spans="8:22" x14ac:dyDescent="0.3">
-      <c r="H37" s="29" t="str">
-        <f>CONCATENATE("PLY/3,",L6,",",P6)</f>
-        <v>PLY/3,51.316673,4.291679</v>
-      </c>
-      <c r="I37" s="28"/>
-      <c r="J37" s="28"/>
-      <c r="K37" s="28"/>
-      <c r="L37" s="26"/>
-      <c r="M37" s="24"/>
-      <c r="N37" s="25"/>
-      <c r="O37" s="25"/>
-      <c r="P37" s="25"/>
-      <c r="Q37" s="25"/>
-      <c r="R37" s="25"/>
-      <c r="S37" s="25"/>
-      <c r="T37" s="25"/>
-      <c r="U37" s="25"/>
-      <c r="V37" s="26"/>
-    </row>
-    <row r="38" spans="8:22" x14ac:dyDescent="0.3">
-      <c r="H38" s="29" t="str">
-        <f>CONCATENATE("PLY/4,",L12,",",P12)</f>
-        <v>PLY/4,51.250005,4.291679</v>
-      </c>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
-      <c r="K38" s="28"/>
-      <c r="L38" s="26"/>
-      <c r="M38" s="97" t="s">
-        <v>31</v>
-      </c>
-      <c r="N38" s="99"/>
-      <c r="O38" s="25"/>
-      <c r="P38" s="25"/>
-      <c r="Q38" s="25"/>
-      <c r="R38" s="25"/>
-      <c r="S38" s="25"/>
-      <c r="T38" s="25"/>
-      <c r="U38" s="25"/>
-      <c r="V38" s="26"/>
-    </row>
-    <row r="39" spans="8:22" x14ac:dyDescent="0.3">
-      <c r="H39" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="28"/>
-      <c r="L39" s="26"/>
-      <c r="M39" s="42" t="str">
-        <f>CONCATENATE("imgkap ",C2,".png ",K15," ",C2,"map.kap")</f>
-        <v>imgkap MA0139S2.png MA0139S2.kap MA0139S2map.kap</v>
-      </c>
-      <c r="N39" s="25"/>
-      <c r="O39" s="25"/>
-      <c r="P39" s="25"/>
-      <c r="Q39" s="25"/>
-      <c r="R39" s="25"/>
-      <c r="S39" s="25"/>
-      <c r="T39" s="25"/>
-      <c r="U39" s="25"/>
-      <c r="V39" s="26"/>
-    </row>
-    <row r="40" spans="8:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H40" s="80" t="str">
-        <f>CONCATENATE("!EXTRACT FOR BSB FILE:  (REMOVE !)")</f>
-        <v>!EXTRACT FOR BSB FILE:  (REMOVE !)</v>
-      </c>
-      <c r="I40" s="32"/>
-      <c r="J40" s="32"/>
-      <c r="K40" s="32"/>
-      <c r="L40" s="33"/>
       <c r="M40" s="31"/>
       <c r="N40" s="32"/>
       <c r="O40" s="32"/>
@@ -3020,58 +3549,93 @@
     </row>
     <row r="41" spans="8:22" x14ac:dyDescent="0.3">
       <c r="H41" s="81" t="str">
+        <f>CONCATENATE("!EXTRACT FOR BSB FILE:  (REMOVE !)")</f>
+        <v>!EXTRACT FOR BSB FILE:  (REMOVE !)</v>
+      </c>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="25"/>
+      <c r="L41" s="26"/>
+    </row>
+    <row r="42" spans="8:22" x14ac:dyDescent="0.3">
+      <c r="H42" s="81" t="str">
         <f>CONCATENATE("!",Q27)</f>
         <v>!MA0139S2map.BSB</v>
       </c>
-    </row>
-    <row r="42" spans="8:22" x14ac:dyDescent="0.3">
-      <c r="H42" s="81" t="str">
-        <f ca="1">CONCATENATE("!",M29)</f>
-        <v>!CRR/MARI-caribbean 13/10/21 12:29:20</v>
-      </c>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="26"/>
     </row>
     <row r="43" spans="8:22" x14ac:dyDescent="0.3">
       <c r="H43" s="81" t="str">
-        <f t="shared" ref="H43:H46" si="4">CONCATENATE("!",M30)</f>
-        <v>!VER/3.0</v>
-      </c>
+        <f ca="1">CONCATENATE("!",M29)</f>
+        <v>!CRR/MARI-caribbean 26/10/21 19:53:12</v>
+      </c>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="26"/>
     </row>
     <row r="44" spans="8:22" x14ac:dyDescent="0.3">
       <c r="H44" s="81" t="str">
-        <f t="shared" si="4"/>
-        <v>!CHT/NA=MA0139S2map,NU=MA0139S2</v>
-      </c>
+        <f>CONCATENATE("!",M30)</f>
+        <v>!VER/3.0</v>
+      </c>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="26"/>
     </row>
     <row r="45" spans="8:22" x14ac:dyDescent="0.3">
       <c r="H45" s="81" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>!CED/SE=01,RE=01,ED=13/10/21</v>
-      </c>
+        <f>CONCATENATE("!",M31)</f>
+        <v>!CHT/NA=MA0139S2map,NU=MA0139S2</v>
+      </c>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="26"/>
     </row>
     <row r="46" spans="8:22" x14ac:dyDescent="0.3">
       <c r="H46" s="81" t="str">
-        <f t="shared" si="4"/>
+        <f ca="1">CONCATENATE("!",M32)</f>
+        <v>!CED/SE=01,RE=01,ED=26/10/21</v>
+      </c>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="26"/>
+    </row>
+    <row r="47" spans="8:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H47" s="67" t="str">
+        <f>CONCATENATE("!",M33)</f>
         <v>!K01/NA=MA0139S2map,NU=MA0139S2,TY=BASE,FN=MA0139S2map.KAP</v>
       </c>
+      <c r="I47" s="32"/>
+      <c r="J47" s="32"/>
+      <c r="K47" s="32"/>
+      <c r="L47" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="P12:R12"/>
+  <mergeCells count="17">
+    <mergeCell ref="I1:J1"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="F6:H6"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="P6:R6"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="H9:I9"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:G3"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="H9:I9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3082,7 +3646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4769B198-135A-410D-8B1F-3F843D2F8A90}">
   <dimension ref="A1:Y40"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
@@ -3104,10 +3668,10 @@
       <c r="B1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="78" t="s">
+      <c r="C1" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="78"/>
+      <c r="D1" s="134"/>
       <c r="E1" s="18" t="s">
         <v>28</v>
       </c>
@@ -3219,45 +3783,45 @@
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B6" s="75">
+      <c r="B6" s="131">
         <f>S6</f>
         <v>53.366674000000003</v>
       </c>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="F6" s="75">
+      <c r="C6" s="133"/>
+      <c r="D6" s="133"/>
+      <c r="F6" s="131">
         <f>F12</f>
         <v>5.1400079999999999</v>
       </c>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="J6" s="75">
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="J6" s="131">
         <f>J5+(K5*$A$16)+((L5/100*60)*$A$18)</f>
         <v>53.366674000000003</v>
       </c>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
+      <c r="K6" s="131"/>
+      <c r="L6" s="131"/>
       <c r="M6" t="s">
         <v>4</v>
       </c>
-      <c r="N6" s="75">
+      <c r="N6" s="131">
         <f>N5+(O5*$A$16)+((P5/100*60)*$A$18)</f>
         <v>5.2150159999999994</v>
       </c>
-      <c r="O6" s="75"/>
-      <c r="P6" s="75"/>
-      <c r="S6" s="75">
+      <c r="O6" s="131"/>
+      <c r="P6" s="131"/>
+      <c r="S6" s="131">
         <f>S5+(T5*$A$16)+((U5/100*60)*$A$18)</f>
         <v>53.366674000000003</v>
       </c>
-      <c r="T6" s="75"/>
-      <c r="U6" s="75"/>
-      <c r="W6" s="75">
+      <c r="T6" s="131"/>
+      <c r="U6" s="131"/>
+      <c r="W6" s="131">
         <f>W5+(X5*$A$16)+((Y5/100*60)*$A$18)</f>
         <v>5.2666719999999998</v>
       </c>
-      <c r="X6" s="75"/>
-      <c r="Y6" s="75"/>
+      <c r="X6" s="131"/>
+      <c r="Y6" s="131"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B7" s="17">
@@ -3304,19 +3868,19 @@
       <c r="C9" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="76">
+      <c r="D9" s="132">
         <f>S6-B12</f>
         <v>5.8328000000003044E-2</v>
       </c>
-      <c r="E9" s="76"/>
+      <c r="E9" s="132"/>
       <c r="G9" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="76">
+      <c r="H9" s="132">
         <f>W6-F12</f>
         <v>0.12666399999999989</v>
       </c>
-      <c r="I9" s="76"/>
+      <c r="I9" s="132"/>
       <c r="J9" s="20"/>
       <c r="K9" s="20"/>
       <c r="L9" s="20"/>
@@ -3393,33 +3957,33 @@
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B12" s="75">
+      <c r="B12" s="131">
         <f>B11+(C11*$A$16)+((D11/100*60)*$A$18)</f>
         <v>53.308346</v>
       </c>
-      <c r="C12" s="75"/>
-      <c r="D12" s="75"/>
+      <c r="C12" s="131"/>
+      <c r="D12" s="131"/>
       <c r="E12" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="75">
+      <c r="F12" s="131">
         <f>F11+(G11*$A$16)+((H11/100*60)*$A$18)</f>
         <v>5.1400079999999999</v>
       </c>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
-      <c r="S12" s="75">
+      <c r="G12" s="131"/>
+      <c r="H12" s="131"/>
+      <c r="S12" s="131">
         <f>B12</f>
         <v>53.308346</v>
       </c>
-      <c r="T12" s="77"/>
-      <c r="U12" s="77"/>
-      <c r="W12" s="75">
+      <c r="T12" s="133"/>
+      <c r="U12" s="133"/>
+      <c r="W12" s="131">
         <f>W6</f>
         <v>5.2666719999999998</v>
       </c>
-      <c r="X12" s="77"/>
-      <c r="Y12" s="77"/>
+      <c r="X12" s="133"/>
+      <c r="Y12" s="133"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="8">
@@ -3491,20 +4055,20 @@
       <c r="A16" s="5">
         <v>1.6667000000000001E-2</v>
       </c>
-      <c r="B16" s="74">
+      <c r="B16" s="124">
         <v>3200</v>
       </c>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74">
+      <c r="C16" s="124"/>
+      <c r="D16" s="124">
         <v>2400</v>
       </c>
-      <c r="E16" s="74"/>
+      <c r="E16" s="124"/>
       <c r="F16" s="13">
         <v>300</v>
       </c>
       <c r="G16" s="1" t="str">
         <f ca="1">CONCATENATE("!MARI-caribbean ",TEXT(NOW(),"dd/mm/yy"))</f>
-        <v>!MARI-caribbean 13/10/21</v>
+        <v>!MARI-caribbean 26/10/21</v>
       </c>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
@@ -3518,7 +4082,7 @@
       <c r="Q16" s="15"/>
       <c r="S16" s="1" t="str">
         <f ca="1">CONCATENATE("CRR/MARI-caribbean ",TEXT(NOW(),"dd/mm/yy hh:mm:ss"))</f>
-        <v>CRR/MARI-caribbean 13/10/21 12:29:20</v>
+        <v>CRR/MARI-caribbean 26/10/21 19:53:12</v>
       </c>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
@@ -3624,7 +4188,7 @@
       <c r="Q19" s="15"/>
       <c r="S19" s="1" t="str">
         <f ca="1">CONCATENATE("CED/SE=01,RE=01,ED=",TEXT(TODAY(),"dd/mm/yy"))</f>
-        <v>CED/SE=01,RE=01,ED=13/10/21</v>
+        <v>CED/SE=01,RE=01,ED=26/10/21</v>
       </c>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
@@ -4012,4 +4576,53 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0611108D-B887-4DC2-A053-D88D26019A4E}">
+  <dimension ref="B2:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>19.066700000000001</v>
+      </c>
+      <c r="F3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>-12.5167</v>
+      </c>
+      <c r="J3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>